--- a/zhao et al.-Data.xlsx
+++ b/zhao et al.-Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="111">
   <si>
     <t>Data from experiment I from Zhao et al., submitted, Current Biology.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,30 +339,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>duration (ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>turning angle (°)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAV (°/ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAV (°/ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11.11 ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,18 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100.00ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance moved during the whole fast-start escape response (mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fish:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>duration of stage 1 (ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>turning angle of stage 1 (°)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,22 +428,6 @@
   </si>
   <si>
     <t>escape response:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration (ms):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turning angle (°):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAV (°/ms):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAV (°/ms):</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -550,14 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Distance moved during the whole fast-start escape response (mm):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance moved of individuals during the whole fast-start escape response (mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -577,6 +521,53 @@
       </rPr>
       <t>40%</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durations of stage 1 and 2 (ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>turning angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAV :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAV:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turning angle:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durations:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance moved during the whole fast-start escape response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance moved during the whole fast-start escape response:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance moved of individuals during the whole fast-start escape response (mm) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,12 +647,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -676,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -711,9 +708,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,8 +717,10 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,6 +741,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,7 +1089,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
       <c r="B4" s="10">
@@ -1093,24 +1098,24 @@
       <c r="C4" s="10">
         <v>12.4</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>95</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <v>95</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>0.5474</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="24">
+      <c r="M4" s="23">
         <v>52</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -1121,23 +1126,23 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10">
         <v>10.99</v>
       </c>
       <c r="C5" s="10">
         <v>12</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="24"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="24"/>
+      <c r="M5" s="23"/>
       <c r="P5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1146,23 +1151,23 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="10">
         <v>13.26</v>
       </c>
       <c r="C6" s="10">
         <v>13.4</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="24"/>
+      <c r="M6" s="23"/>
       <c r="P6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1171,7 +1176,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
       <c r="B7" s="10">
@@ -1180,24 +1185,24 @@
       <c r="C7" s="10">
         <v>12.4</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>88</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>1</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>88</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>0.53410000000000002</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="24">
+      <c r="M7" s="23">
         <v>47</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -1208,23 +1213,23 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10">
         <v>9.4</v>
       </c>
       <c r="C8" s="10">
         <v>12</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="24"/>
+      <c r="M8" s="23"/>
       <c r="P8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1233,23 +1238,23 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="10">
         <v>9.85</v>
       </c>
       <c r="C9" s="10">
         <v>12.7</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="24"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="24"/>
+      <c r="M9" s="23"/>
       <c r="P9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1258,7 +1263,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
       <c r="B10" s="10">
@@ -1267,24 +1272,24 @@
       <c r="C10" s="10">
         <v>12.7</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>92</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>1</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>92</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>0.51090000000000002</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="24">
+      <c r="M10" s="23">
         <v>47</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -1296,50 +1301,50 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="10">
         <v>12.1</v>
       </c>
       <c r="C11" s="10">
         <v>12.8</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="24"/>
+      <c r="M11" s="23"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="10">
         <v>13.49</v>
       </c>
       <c r="C12" s="10">
         <v>13.4</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="24"/>
+      <c r="M12" s="23"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
       <c r="B13" s="10">
@@ -1348,67 +1353,67 @@
       <c r="C13" s="10">
         <v>12.5</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>77</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>1</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>77</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>0.44159999999999999</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="24">
+      <c r="M13" s="23">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="10">
         <v>9.94</v>
       </c>
       <c r="C14" s="10">
         <v>11</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="24"/>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="10">
         <v>10.46</v>
       </c>
       <c r="C15" s="10">
         <v>13</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>5</v>
       </c>
       <c r="B16" s="10">
@@ -1417,67 +1422,67 @@
       <c r="C16" s="10">
         <v>12.6</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>92</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>1</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>92</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>0.5978</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="24">
+      <c r="M16" s="23">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="10">
         <v>11.19</v>
       </c>
       <c r="C17" s="10">
         <v>12.9</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="24"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="24"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="10">
         <v>11.74</v>
       </c>
       <c r="C18" s="10">
         <v>12.6</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="24"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>6</v>
       </c>
       <c r="B19" s="10">
@@ -1486,67 +1491,67 @@
       <c r="C19" s="10">
         <v>12.3</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>95</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>1</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <v>95</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>0.53680000000000005</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="24">
+      <c r="M19" s="23">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="10">
         <v>11.8</v>
       </c>
       <c r="C20" s="10">
         <v>12.7</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="24"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="24"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="10">
         <v>11.67</v>
       </c>
       <c r="C21" s="10">
         <v>12.8</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="24"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="24"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="23">
         <v>7</v>
       </c>
       <c r="B22" s="10">
@@ -1555,67 +1560,67 @@
       <c r="C22" s="10">
         <v>12.7</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>89</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>1</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <v>89</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>0.41570000000000001</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="24">
+      <c r="M22" s="23">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10">
         <v>12.06</v>
       </c>
       <c r="C23" s="10">
         <v>12.9</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="24"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="24"/>
+      <c r="M23" s="23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="10">
         <v>10.52</v>
       </c>
       <c r="C24" s="10">
         <v>12.6</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="24"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="24"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="23">
         <v>8</v>
       </c>
       <c r="B25" s="10">
@@ -1624,67 +1629,67 @@
       <c r="C25" s="10">
         <v>12.6</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>91</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="22">
+      <c r="F25" s="21">
         <v>1</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="24">
+      <c r="H25" s="23">
         <v>91</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>0.51649999999999996</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="24">
+      <c r="M25" s="23">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="10">
         <v>13.1</v>
       </c>
       <c r="C26" s="10">
         <v>12.9</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="24"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="24"/>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="10">
         <v>9.7799999999999994</v>
       </c>
       <c r="C27" s="10">
         <v>11.6</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="24"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="24"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="24"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="23">
         <v>9</v>
       </c>
       <c r="B28" s="10">
@@ -1693,67 +1698,67 @@
       <c r="C28" s="10">
         <v>12.6</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>99</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <v>1</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="24">
+      <c r="H28" s="23">
         <v>99</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>0.47470000000000001</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="24">
+      <c r="M28" s="23">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="10">
         <v>12.47</v>
       </c>
       <c r="C29" s="10">
         <v>12.5</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="24"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="24"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="24"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="10">
         <v>11.46</v>
       </c>
       <c r="C30" s="10">
         <v>12.6</v>
       </c>
-      <c r="D30" s="24"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="22"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="24"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="24"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="24"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="10">
@@ -1762,67 +1767,67 @@
       <c r="C31" s="11">
         <v>12.8</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>102</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="24">
+      <c r="H31" s="23">
         <v>61</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>0.52939999999999998</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="24">
+      <c r="M31" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="10">
         <v>11.77</v>
       </c>
       <c r="C32" s="10">
         <v>12.4</v>
       </c>
-      <c r="D32" s="24"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="22"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="24"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="24"/>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="10">
         <v>14.75</v>
       </c>
       <c r="C33" s="10">
         <v>13.5</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="24"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="24"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="10">
@@ -1831,67 +1836,67 @@
       <c r="C34" s="10">
         <v>12.7</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23">
         <v>98</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="24">
+      <c r="H34" s="23">
         <v>59</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>0.55100000000000005</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="24">
+      <c r="M34" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10">
         <v>11.2</v>
       </c>
       <c r="C35" s="10">
         <v>12.5</v>
       </c>
-      <c r="D35" s="24"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="24"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="24"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="24"/>
+      <c r="M35" s="23"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="10">
         <v>10.57</v>
       </c>
       <c r="C36" s="11">
         <v>12.2</v>
       </c>
-      <c r="D36" s="24"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="24"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="24"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="24"/>
+      <c r="M36" s="23"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="10">
@@ -1900,67 +1905,67 @@
       <c r="C37" s="10">
         <v>11.7</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="23">
         <v>101</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="24">
+      <c r="H37" s="23">
         <v>61</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>0.56440000000000001</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="24">
+      <c r="M37" s="23">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="10">
         <v>12.91</v>
       </c>
       <c r="C38" s="10">
         <v>13.1</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="22"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="24"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="24"/>
+      <c r="M38" s="23"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="10">
         <v>11.55</v>
       </c>
       <c r="C39" s="10">
         <v>13</v>
       </c>
-      <c r="D39" s="24"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="22"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="24"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="24"/>
+      <c r="M39" s="23"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="10">
@@ -1969,67 +1974,67 @@
       <c r="C40" s="10">
         <v>12.4</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="23">
         <v>89</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <v>53</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>0.44940000000000002</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="24">
+      <c r="M40" s="23">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="10">
         <v>11</v>
       </c>
       <c r="C41" s="11">
         <v>12.6</v>
       </c>
-      <c r="D41" s="24"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="22"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="24"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="24"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="24"/>
+      <c r="M41" s="23"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="10">
         <v>11.56</v>
       </c>
       <c r="C42" s="10">
         <v>12.6</v>
       </c>
-      <c r="D42" s="24"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="22"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="24"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="24"/>
+      <c r="J42" s="23"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="24"/>
+      <c r="M42" s="23"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="10">
@@ -2038,67 +2043,67 @@
       <c r="C43" s="10">
         <v>12.5</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="23">
         <v>107</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="24">
+      <c r="H43" s="23">
         <v>64</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>0.49530000000000002</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="24">
+      <c r="M43" s="23">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="10">
         <v>14.55</v>
       </c>
       <c r="C44" s="10">
         <v>12.5</v>
       </c>
-      <c r="D44" s="24"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="22"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="24"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="24"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="24"/>
+      <c r="M44" s="23"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="10">
         <v>12.39</v>
       </c>
       <c r="C45" s="10">
         <v>12.8</v>
       </c>
-      <c r="D45" s="24"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="22"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="24"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="24"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="24"/>
+      <c r="M45" s="23"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="10">
@@ -2107,67 +2112,67 @@
       <c r="C46" s="11">
         <v>12.4</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="23">
         <v>89</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="24">
+      <c r="H46" s="23">
         <v>53</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>0.51690000000000003</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="24">
+      <c r="M46" s="23">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="10">
         <v>10.81</v>
       </c>
       <c r="C47" s="10">
         <v>12</v>
       </c>
-      <c r="D47" s="24"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="22"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="24"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="24"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="24"/>
+      <c r="M47" s="23"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="10">
         <v>11.47</v>
       </c>
       <c r="C48" s="10">
         <v>12.9</v>
       </c>
-      <c r="D48" s="24"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="22"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="24"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="24"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="24"/>
+      <c r="M48" s="23"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="10">
@@ -2176,67 +2181,67 @@
       <c r="C49" s="10">
         <v>12.9</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="23">
         <v>101</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="24">
+      <c r="H49" s="23">
         <v>61</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>0.47520000000000001</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="24">
+      <c r="M49" s="23">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="10">
         <v>10.78</v>
       </c>
       <c r="C50" s="11">
         <v>12.5</v>
       </c>
-      <c r="D50" s="24"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="22"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="24"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="24"/>
+      <c r="J50" s="23"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="24"/>
+      <c r="M50" s="23"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="10">
         <v>15.69</v>
       </c>
       <c r="C51" s="10">
         <v>13.1</v>
       </c>
-      <c r="D51" s="24"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="22"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="24"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="24"/>
+      <c r="J51" s="23"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="24"/>
+      <c r="M51" s="23"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="10">
@@ -2245,67 +2250,67 @@
       <c r="C52" s="11">
         <v>12.7</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="23">
         <v>111</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="24">
+      <c r="H52" s="23">
         <v>67</v>
       </c>
       <c r="I52" s="1"/>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>0.55859999999999999</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="24">
+      <c r="M52" s="23">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="10">
         <v>13.14</v>
       </c>
       <c r="C53" s="10">
         <v>12.3</v>
       </c>
-      <c r="D53" s="24"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="22"/>
+      <c r="F53" s="21"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="24"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="24"/>
+      <c r="J53" s="23"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="24"/>
+      <c r="M53" s="23"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="10">
         <v>13.88</v>
       </c>
       <c r="C54" s="10">
         <v>12.3</v>
       </c>
-      <c r="D54" s="24"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="22"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="24"/>
+      <c r="H54" s="23"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="24"/>
+      <c r="J54" s="23"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="24"/>
+      <c r="M54" s="23"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="10">
@@ -2314,67 +2319,67 @@
       <c r="C55" s="10">
         <v>11.8</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="24">
         <v>77</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="24">
+      <c r="H55" s="23">
         <v>46</v>
       </c>
       <c r="I55" s="1"/>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>0.48049999999999998</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="24">
+      <c r="M55" s="23">
         <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="10">
         <v>9.89</v>
       </c>
       <c r="C56" s="11">
         <v>12</v>
       </c>
-      <c r="D56" s="25"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="22"/>
+      <c r="F56" s="21"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="24"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="24"/>
+      <c r="J56" s="23"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="24"/>
+      <c r="M56" s="23"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="10">
         <v>10.16</v>
       </c>
       <c r="C57" s="10">
         <v>11.7</v>
       </c>
-      <c r="D57" s="25"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="22"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="24"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="24"/>
+      <c r="J57" s="23"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="24"/>
+      <c r="M57" s="23"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="10">
@@ -2383,68 +2388,68 @@
       <c r="C58" s="10">
         <v>12.2</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="24">
         <v>96</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="24">
+      <c r="H58" s="23">
         <v>38</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="22" t="s">
-        <v>112</v>
+      <c r="J58" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="24">
+      <c r="M58" s="23">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="10">
         <v>12.5</v>
       </c>
       <c r="C59" s="10">
         <v>12.4</v>
       </c>
-      <c r="D59" s="25"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="22"/>
+      <c r="F59" s="21"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="24"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="22"/>
+      <c r="J59" s="21"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="24"/>
+      <c r="M59" s="23"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="10">
         <v>10.8</v>
       </c>
       <c r="C60" s="10">
         <v>12</v>
       </c>
-      <c r="D60" s="25"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="22"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="24"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="22"/>
+      <c r="J60" s="21"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="24"/>
-      <c r="Q60" s="22"/>
+      <c r="M60" s="23"/>
+      <c r="Q60" s="21"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="10">
@@ -2453,70 +2458,70 @@
       <c r="C61" s="11">
         <v>12.8</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="24">
         <v>105</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="22">
+      <c r="F61" s="21">
         <v>0.4</v>
       </c>
       <c r="G61" s="1"/>
-      <c r="H61" s="24">
+      <c r="H61" s="23">
         <v>42</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="22">
+      <c r="J61" s="21">
         <v>0.4</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="24">
+      <c r="M61" s="23">
         <v>42</v>
       </c>
-      <c r="Q61" s="22"/>
+      <c r="Q61" s="21"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="10">
         <v>13.83</v>
       </c>
       <c r="C62" s="10">
         <v>13.1</v>
       </c>
-      <c r="D62" s="25"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="22"/>
+      <c r="F62" s="21"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="24"/>
+      <c r="H62" s="23"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="22"/>
+      <c r="J62" s="21"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="24"/>
-      <c r="Q62" s="22"/>
+      <c r="M62" s="23"/>
+      <c r="Q62" s="21"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="10">
         <v>13.34</v>
       </c>
       <c r="C63" s="10">
         <v>12.5</v>
       </c>
-      <c r="D63" s="25"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="22"/>
+      <c r="F63" s="21"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="24"/>
+      <c r="H63" s="23"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="22"/>
+      <c r="J63" s="21"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="24"/>
-      <c r="Q63" s="22"/>
+      <c r="M63" s="23"/>
+      <c r="Q63" s="21"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="10">
@@ -2525,70 +2530,70 @@
       <c r="C64" s="10">
         <v>12.1</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="24">
         <v>98</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G64" s="1"/>
-      <c r="H64" s="24">
+      <c r="H64" s="23">
         <v>39</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="23">
+      <c r="J64" s="22">
         <v>0.38779999999999998</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="24">
+      <c r="M64" s="23">
         <v>38</v>
       </c>
-      <c r="Q64" s="22"/>
+      <c r="Q64" s="21"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="10">
         <v>11.43</v>
       </c>
       <c r="C65" s="10">
         <v>12.5</v>
       </c>
-      <c r="D65" s="25"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="22"/>
+      <c r="F65" s="21"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="24"/>
+      <c r="H65" s="23"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="24"/>
+      <c r="J65" s="23"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="24"/>
-      <c r="Q65" s="22"/>
+      <c r="M65" s="23"/>
+      <c r="Q65" s="21"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="10">
         <v>13.07</v>
       </c>
       <c r="C66" s="10">
         <v>13</v>
       </c>
-      <c r="D66" s="25"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="22"/>
+      <c r="F66" s="21"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="24"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="24"/>
+      <c r="J66" s="23"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="24"/>
-      <c r="Q66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="Q66" s="22"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="10">
@@ -2597,70 +2602,70 @@
       <c r="C67" s="11">
         <v>12.2</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="23">
         <v>93</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G67" s="1"/>
-      <c r="H67" s="24">
+      <c r="H67" s="23">
         <v>37</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="22" t="s">
+      <c r="J67" s="21" t="s">
         <v>34</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="24">
+      <c r="M67" s="23">
         <v>37</v>
       </c>
-      <c r="Q67" s="24"/>
+      <c r="Q67" s="23"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="10">
         <v>12.12</v>
       </c>
       <c r="C68" s="10">
         <v>12.7</v>
       </c>
-      <c r="D68" s="24"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="22"/>
+      <c r="F68" s="21"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="24"/>
+      <c r="H68" s="23"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="22"/>
+      <c r="J68" s="21"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="24"/>
-      <c r="Q68" s="24"/>
+      <c r="M68" s="23"/>
+      <c r="Q68" s="23"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="10">
         <v>10.83</v>
       </c>
       <c r="C69" s="10">
         <v>12.3</v>
       </c>
-      <c r="D69" s="24"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="22"/>
+      <c r="F69" s="21"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="24"/>
+      <c r="H69" s="23"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="22"/>
+      <c r="J69" s="21"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="24"/>
-      <c r="Q69" s="22"/>
+      <c r="M69" s="23"/>
+      <c r="Q69" s="21"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B70" s="10">
@@ -2669,70 +2674,70 @@
       <c r="C70" s="10">
         <v>12.9</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="23">
         <v>103</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="22" t="s">
+      <c r="F70" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="24">
+      <c r="H70" s="23">
         <v>41</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="23">
+      <c r="J70" s="22">
         <v>0.37859999999999999</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="24">
+      <c r="M70" s="23">
         <v>39</v>
       </c>
-      <c r="Q70" s="22"/>
+      <c r="Q70" s="21"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="10">
         <v>11.91</v>
       </c>
       <c r="C71" s="10">
         <v>13</v>
       </c>
-      <c r="D71" s="24"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="22"/>
+      <c r="F71" s="21"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="24"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="24"/>
+      <c r="J71" s="23"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="24"/>
-      <c r="Q71" s="22"/>
+      <c r="M71" s="23"/>
+      <c r="Q71" s="21"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="10">
         <v>13.15</v>
       </c>
       <c r="C72" s="11">
         <v>13.5</v>
       </c>
-      <c r="D72" s="24"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="22"/>
+      <c r="F72" s="21"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="24"/>
+      <c r="H72" s="23"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="24"/>
+      <c r="J72" s="23"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="24"/>
-      <c r="Q72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="Q72" s="22"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B73" s="10">
@@ -2741,70 +2746,70 @@
       <c r="C73" s="10">
         <v>11.6</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="23">
         <v>94</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="22" t="s">
+      <c r="F73" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G73" s="1"/>
-      <c r="H73" s="24">
+      <c r="H73" s="23">
         <v>38</v>
       </c>
       <c r="I73" s="1"/>
-      <c r="J73" s="22" t="s">
+      <c r="J73" s="21" t="s">
         <v>34</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="24">
+      <c r="M73" s="23">
         <v>38</v>
       </c>
-      <c r="Q73" s="24"/>
+      <c r="Q73" s="23"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="10">
         <v>12.77</v>
       </c>
       <c r="C74" s="10">
         <v>12.8</v>
       </c>
-      <c r="D74" s="24"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="22"/>
+      <c r="F74" s="21"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="24"/>
+      <c r="H74" s="23"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="22"/>
+      <c r="J74" s="21"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="24"/>
-      <c r="Q74" s="24"/>
+      <c r="M74" s="23"/>
+      <c r="Q74" s="23"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="10">
         <v>11.44</v>
       </c>
       <c r="C75" s="10">
         <v>12.2</v>
       </c>
-      <c r="D75" s="24"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="22"/>
+      <c r="F75" s="21"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="24"/>
+      <c r="H75" s="23"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="22"/>
+      <c r="J75" s="21"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="24"/>
-      <c r="Q75" s="22"/>
+      <c r="M75" s="23"/>
+      <c r="Q75" s="21"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="10">
@@ -2813,70 +2818,70 @@
       <c r="C76" s="10">
         <v>11.8</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="23">
         <v>96</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="22" t="s">
+      <c r="F76" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G76" s="1"/>
-      <c r="H76" s="24">
+      <c r="H76" s="23">
         <v>38</v>
       </c>
       <c r="I76" s="1"/>
-      <c r="J76" s="23">
+      <c r="J76" s="22">
         <v>0.36459999999999998</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="24">
+      <c r="M76" s="23">
         <v>35</v>
       </c>
-      <c r="Q76" s="22"/>
+      <c r="Q76" s="21"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="10">
         <v>10.71</v>
       </c>
       <c r="C77" s="10">
         <v>12.4</v>
       </c>
-      <c r="D77" s="24"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="22"/>
+      <c r="F77" s="21"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="24"/>
+      <c r="H77" s="23"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="24"/>
+      <c r="J77" s="23"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="24"/>
-      <c r="Q77" s="22"/>
+      <c r="M77" s="23"/>
+      <c r="Q77" s="21"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="10">
         <v>13.44</v>
       </c>
       <c r="C78" s="10">
         <v>12.7</v>
       </c>
-      <c r="D78" s="24"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="22"/>
+      <c r="F78" s="21"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="24"/>
+      <c r="H78" s="23"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="24"/>
+      <c r="J78" s="23"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="24"/>
-      <c r="Q78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="Q78" s="22"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="10">
@@ -2885,70 +2890,70 @@
       <c r="C79" s="10">
         <v>11.4</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="23">
         <v>83</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G79" s="1"/>
-      <c r="H79" s="24">
+      <c r="H79" s="23">
         <v>33</v>
       </c>
       <c r="I79" s="1"/>
-      <c r="J79" s="23">
+      <c r="J79" s="22">
         <v>0.3735</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="24">
+      <c r="M79" s="23">
         <v>31</v>
       </c>
-      <c r="Q79" s="24"/>
+      <c r="Q79" s="23"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="10">
         <v>10.78</v>
       </c>
       <c r="C80" s="10">
         <v>12</v>
       </c>
-      <c r="D80" s="24"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="22"/>
+      <c r="F80" s="21"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="24"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="24"/>
+      <c r="J80" s="23"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="24"/>
-      <c r="Q80" s="24"/>
+      <c r="M80" s="23"/>
+      <c r="Q80" s="23"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="10">
         <v>11.89</v>
       </c>
       <c r="C81" s="10">
         <v>12.7</v>
       </c>
-      <c r="D81" s="24"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="22"/>
+      <c r="F81" s="21"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="24"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="24"/>
+      <c r="J81" s="23"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="24"/>
-      <c r="Q81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="Q81" s="22"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B82" s="10">
@@ -2957,76 +2962,76 @@
       <c r="C82" s="10">
         <v>12.2</v>
       </c>
-      <c r="D82" s="24">
+      <c r="D82" s="23">
         <v>105</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="22">
+      <c r="F82" s="21">
         <v>0.4</v>
       </c>
       <c r="G82" s="1"/>
-      <c r="H82" s="24">
+      <c r="H82" s="23">
         <v>42</v>
       </c>
       <c r="I82" s="1"/>
-      <c r="J82" s="22">
+      <c r="J82" s="21">
         <v>0.4</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="24">
+      <c r="M82" s="23">
         <v>42</v>
       </c>
-      <c r="Q82" s="24"/>
+      <c r="Q82" s="23"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="10">
         <v>13.65</v>
       </c>
       <c r="C83" s="10">
         <v>12.9</v>
       </c>
-      <c r="D83" s="24"/>
+      <c r="D83" s="23"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="22"/>
+      <c r="F83" s="21"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="24"/>
+      <c r="H83" s="23"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="22"/>
+      <c r="J83" s="21"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="24"/>
-      <c r="Q83" s="24"/>
+      <c r="M83" s="23"/>
+      <c r="Q83" s="23"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="24"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="10">
         <v>12.93</v>
       </c>
       <c r="C84" s="10">
         <v>12.6</v>
       </c>
-      <c r="D84" s="24"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="22"/>
+      <c r="F84" s="21"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="24"/>
+      <c r="H84" s="23"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="22"/>
+      <c r="J84" s="21"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="24"/>
-      <c r="Q84" s="22"/>
+      <c r="M84" s="23"/>
+      <c r="Q84" s="21"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
-      <c r="J85" s="21"/>
-      <c r="Q85" s="22"/>
+      <c r="J85" s="19"/>
+      <c r="Q85" s="21"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
-      <c r="Q86" s="22"/>
+      <c r="Q86" s="21"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
@@ -3281,7 +3286,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
       <c r="B4" s="2">
@@ -3291,22 +3296,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>1</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>102</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>0.81369999999999998</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="24">
+      <c r="N4" s="23">
         <v>83</v>
       </c>
       <c r="O4" s="7"/>
@@ -3318,7 +3323,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2">
         <v>12.22</v>
       </c>
@@ -3326,16 +3331,16 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="7"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="24"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="7"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="24"/>
+      <c r="N5" s="23"/>
       <c r="O5" s="7"/>
       <c r="Q5" s="1" t="s">
         <v>31</v>
@@ -3345,7 +3350,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2">
         <v>11.33</v>
       </c>
@@ -3353,16 +3358,16 @@
         <v>12.6</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="7"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="7"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="24"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="7"/>
       <c r="Q6" s="1" t="s">
         <v>36</v>
@@ -3372,7 +3377,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
       <c r="B7" s="2">
@@ -3382,22 +3387,22 @@
         <v>12.3</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>1</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>93</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>55</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="23" t="s">
         <v>55</v>
       </c>
       <c r="O7" s="7"/>
@@ -3409,7 +3414,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2">
         <v>10.33</v>
       </c>
@@ -3417,16 +3422,16 @@
         <v>11.2</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="7"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="24"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="7"/>
       <c r="Q8" s="1" t="s">
         <v>56</v>
@@ -3436,7 +3441,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2">
         <v>11.9</v>
       </c>
@@ -3444,16 +3449,16 @@
         <v>12</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="7"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="24"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="24"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="7"/>
       <c r="Q9" s="1" t="s">
         <v>57</v>
@@ -3464,7 +3469,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
       <c r="B10" s="2">
@@ -3474,28 +3479,28 @@
         <v>12.5</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>1</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>114</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>0.77190000000000003</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="24">
+      <c r="N10" s="23">
         <v>88</v>
       </c>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="2">
         <v>13.93</v>
       </c>
@@ -3503,22 +3508,22 @@
         <v>12.6</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="24"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="7"/>
       <c r="R11" s="3"/>
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2">
         <v>15.86</v>
       </c>
@@ -3526,19 +3531,19 @@
         <v>13.5</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="7"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="24"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="2">
@@ -3548,27 +3553,27 @@
         <v>12.1</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>0.6</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>63</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="23" t="s">
         <v>55</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="2">
         <v>12.37</v>
       </c>
@@ -3576,22 +3581,22 @@
         <v>13.2</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="7"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="7"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="24"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="7"/>
       <c r="R14" s="3"/>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="2">
         <v>12.41</v>
       </c>
@@ -3599,22 +3604,22 @@
         <v>12.5</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="7"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="24"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="7"/>
       <c r="R15" s="3"/>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="2">
@@ -3624,22 +3629,22 @@
         <v>12.8</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>0.6</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <v>55</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>0.72729999999999995</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="24">
+      <c r="N16" s="23">
         <v>40</v>
       </c>
       <c r="O16" s="7"/>
@@ -3647,7 +3652,7 @@
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="2">
         <v>13.19</v>
       </c>
@@ -3655,22 +3660,22 @@
         <v>12.5</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="24"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="7"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="24"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="7"/>
       <c r="R17" s="3"/>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2">
         <v>9.56</v>
       </c>
@@ -3678,22 +3683,22 @@
         <v>11.1</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="24"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="7"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="7"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="24"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="7"/>
       <c r="R18" s="3"/>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="2">
@@ -3703,27 +3708,27 @@
         <v>12.2</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>0.6</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>67</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>0.80600000000000005</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="24">
+      <c r="N19" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="2">
         <v>13.46</v>
       </c>
@@ -3731,19 +3736,19 @@
         <v>12.5</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="22"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="24"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="7"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="24"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="2">
         <v>10.220000000000001</v>
       </c>
@@ -3751,19 +3756,19 @@
         <v>11.7</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="24"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="24"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="7"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="24"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="2">
@@ -3773,27 +3778,27 @@
         <v>12.2</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>0.4</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>38</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>0.92110000000000003</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="24">
+      <c r="N22" s="23">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="2">
         <v>11.4</v>
       </c>
@@ -3801,19 +3806,19 @@
         <v>13</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="7"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="24"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="7"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="24"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="2">
         <v>14.91</v>
       </c>
@@ -3821,19 +3826,19 @@
         <v>13.2</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="22"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="24"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="24"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="7"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="24"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="2">
@@ -3843,27 +3848,27 @@
         <v>12.5</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>0.4</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <v>31</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>0.9032</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="24">
+      <c r="N25" s="23">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="2">
         <v>12.04</v>
       </c>
@@ -3871,19 +3876,19 @@
         <v>12.2</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="7"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="24"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="7"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="24"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="2">
         <v>11.41</v>
       </c>
@@ -3891,19 +3896,19 @@
         <v>11.9</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="7"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="24"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="7"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="24"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="2">
@@ -3913,28 +3918,28 @@
         <v>12.2</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>0.4</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <v>42</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>0.76190000000000002</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="24">
+      <c r="N28" s="23">
         <v>32</v>
       </c>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="2">
         <v>11.63</v>
       </c>
@@ -3942,20 +3947,20 @@
         <v>12.6</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="24"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="24"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="7"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="24"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="2">
         <v>11.11</v>
       </c>
@@ -3963,16 +3968,16 @@
         <v>12.1</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="24"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="7"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="24"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="7"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="24"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="7"/>
     </row>
   </sheetData>
@@ -4001,12 +4006,12 @@
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G13:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
@@ -4032,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AM22" sqref="AM22"/>
+    <sheetView tabSelected="1" topLeftCell="V7" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4097,27 +4102,25 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
+      <c r="V2" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
@@ -4154,58 +4157,54 @@
       <c r="L3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="15" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="15" t="s">
+      <c r="W3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="15" t="s">
+      <c r="Z3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="AA3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="AB3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="AC3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Z3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD3" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="AD3" s="15"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AJ3" s="1"/>
     </row>
@@ -4237,39 +4236,38 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2">
         <v>33.33</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2">
+      <c r="O4" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q4" s="2">
         <v>46.64</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="14">
-        <f t="shared" ref="R4:R9" si="0">P4/N4</f>
+      <c r="S4" s="2">
+        <f>Q4/N4</f>
         <v>1.3993399339933994</v>
       </c>
-      <c r="S4" s="1"/>
       <c r="T4" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="2">
+      <c r="V4" s="28">
         <v>1.076940193</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="28">
         <v>3.8226097220000002</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="28">
         <v>8.0281956189999999</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="28">
         <v>18.811050900000001</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="28">
         <v>24.950554610000001</v>
       </c>
       <c r="AA4" s="2">
@@ -4281,17 +4279,15 @@
       <c r="AC4" s="2">
         <v>45.53718276</v>
       </c>
-      <c r="AD4" s="2">
-        <v>49.844943530000002</v>
-      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AJ4" s="1"/>
     </row>
@@ -4314,7 +4310,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="13">
-        <f t="shared" ref="H5:H50" si="1">F5*0.00634/C5*100%</f>
+        <f t="shared" ref="H5:H50" si="0">F5*0.00634/C5*100%</f>
         <v>5.585903083700441E-4</v>
       </c>
       <c r="I5" s="1"/>
@@ -4323,36 +4319,35 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2">
         <v>33.33</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2">
+      <c r="O5" s="2">
+        <v>11.11</v>
+      </c>
+      <c r="Q5" s="2">
         <v>59.71</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="14">
-        <f t="shared" si="0"/>
+      <c r="S5" s="14">
+        <f>Q5/N5</f>
         <v>1.7914791479147916</v>
       </c>
-      <c r="S5" s="1"/>
       <c r="T5" s="2">
         <v>2.72</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="2">
+      <c r="V5" s="28">
         <v>1.7074273250000001</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="28">
         <v>9.3432744870000004</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="28">
         <v>20.78289603</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="28">
         <v>35.558693239999997</v>
       </c>
       <c r="Z5" s="2">
@@ -4367,9 +4362,7 @@
       <c r="AC5" s="2">
         <v>98.360803390000001</v>
       </c>
-      <c r="AD5" s="2">
-        <v>110.4341378</v>
-      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1" t="s">
         <v>30</v>
@@ -4400,7 +4393,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6912028725314185E-4</v>
       </c>
       <c r="I6" s="1"/>
@@ -4409,36 +4402,35 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
         <v>22.22</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2">
+      <c r="O6" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q6" s="2">
         <v>52.42</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="14">
-        <f t="shared" si="0"/>
+      <c r="S6" s="14">
+        <f>Q6/N6</f>
         <v>2.3591359135913592</v>
       </c>
-      <c r="S6" s="1"/>
       <c r="T6" s="2">
         <v>3.74</v>
       </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="2">
+      <c r="V6" s="28">
         <v>0.575958521</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="28">
         <v>5.0743383629999999</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="28">
         <v>16.722378590000002</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="28">
         <v>28.38464978</v>
       </c>
       <c r="Z6" s="2">
@@ -4453,12 +4445,10 @@
       <c r="AC6" s="2">
         <v>63.72535929</v>
       </c>
-      <c r="AD6" s="2">
-        <v>71.234939639999993</v>
-      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -4486,7 +4476,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.9415432579890881E-4</v>
       </c>
       <c r="I7" s="1"/>
@@ -4495,36 +4485,35 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
         <v>22.22</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2">
+      <c r="O7" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q7" s="2">
         <v>33.85</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="14">
-        <f t="shared" si="0"/>
+      <c r="S7" s="14">
+        <f>Q7/N7</f>
         <v>1.5234023402340235</v>
       </c>
-      <c r="S7" s="1"/>
       <c r="T7" s="2">
         <v>2.42</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="2">
+      <c r="V7" s="28">
         <v>2.1012236949999998</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="28">
         <v>9.6996748180000001</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="28">
         <v>20.413855439999999</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="28">
         <v>26.690529959999999</v>
       </c>
       <c r="Z7" s="2">
@@ -4539,12 +4528,10 @@
       <c r="AC7" s="2">
         <v>46.059095399999997</v>
       </c>
-      <c r="AD7" s="2">
-        <v>49.355766369999998</v>
-      </c>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -4572,7 +4559,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.7993943981831943E-4</v>
       </c>
       <c r="I8" s="1"/>
@@ -4581,39 +4568,38 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
         <v>22.22</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2">
+      <c r="O8" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="Q8" s="2">
         <v>40.83</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="14">
-        <f t="shared" si="0"/>
+      <c r="S8" s="14">
+        <f>Q8/N8</f>
         <v>1.8375337533753375</v>
       </c>
-      <c r="S8" s="1"/>
       <c r="T8" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="2">
+      <c r="V8" s="28">
         <v>0.54187813500000004</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="28">
         <v>3.607203766</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="28">
         <v>11.75341837</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="28">
         <v>20.00706023</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="28">
         <v>26.554598639999998</v>
       </c>
       <c r="AA8" s="2">
@@ -4625,17 +4611,15 @@
       <c r="AC8" s="2">
         <v>39.22650814</v>
       </c>
-      <c r="AD8" s="2">
-        <v>41.935898809999998</v>
-      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AJ8" s="1"/>
     </row>
@@ -4658,7 +4642,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7952468007312617E-4</v>
       </c>
       <c r="I9" s="1"/>
@@ -4667,36 +4651,35 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2">
         <v>33.33</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2">
+      <c r="O9" s="2">
+        <v>11.11</v>
+      </c>
+      <c r="Q9" s="2">
         <v>42.02</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="14">
-        <f t="shared" si="0"/>
+      <c r="S9" s="14">
+        <f>Q9/N9</f>
         <v>1.2607260726072609</v>
       </c>
-      <c r="S9" s="1"/>
       <c r="T9" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="2">
+      <c r="V9" s="28">
         <v>0</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="28">
         <v>4.9958695669999997</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="28">
         <v>13.47760399</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="28">
         <v>19.65596532</v>
       </c>
       <c r="Z9" s="2">
@@ -4711,17 +4694,15 @@
       <c r="AC9" s="2">
         <v>49.175723990000002</v>
       </c>
-      <c r="AD9" s="2">
-        <v>51.12949339</v>
-      </c>
+      <c r="AD9" s="2"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="AJ9" s="1"/>
     </row>
@@ -4744,7 +4725,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2278978388998038E-4</v>
       </c>
       <c r="I10" s="1"/>
@@ -4753,60 +4734,57 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S10" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U10" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AJ10" s="1"/>
     </row>
@@ -4829,7 +4807,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0459476707083598E-4</v>
       </c>
       <c r="I11" s="1"/>
@@ -4838,36 +4816,35 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2">
         <v>22.22</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2">
+      <c r="O11" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q11" s="2">
         <v>43.97</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="14">
-        <f>P11/N11</f>
+      <c r="S11" s="14">
+        <f>Q11/N11</f>
         <v>1.978847884788479</v>
       </c>
-      <c r="S11" s="1"/>
       <c r="T11" s="2">
         <v>2.84</v>
       </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="2">
+      <c r="V11" s="28">
         <v>2.2765697770000002</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="28">
         <v>6.8651428589999997</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="28">
         <v>17.497601150000001</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="28">
         <v>31.204366270000001</v>
       </c>
       <c r="Z11" s="2">
@@ -4882,17 +4859,15 @@
       <c r="AC11" s="2">
         <v>112.894302</v>
       </c>
-      <c r="AD11" s="2">
-        <v>131.22210269999999</v>
-      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ11" s="1"/>
     </row>
@@ -4915,7 +4890,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.8763557483731016E-4</v>
       </c>
       <c r="I12" s="1"/>
@@ -4924,36 +4899,35 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
         <v>22.22</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2">
+      <c r="O12" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q12" s="2">
         <v>25.75</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="14">
-        <f>P12/N12</f>
+      <c r="S12" s="14">
+        <f>Q12/N12</f>
         <v>1.158865886588659</v>
       </c>
-      <c r="S12" s="1"/>
       <c r="T12" s="2">
         <v>1.91</v>
       </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="2">
+      <c r="V12" s="28">
         <v>0.74610165900000003</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="28">
         <v>8.2998052399999995</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="28">
         <v>16.9526547</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="28">
         <v>24.795599249999999</v>
       </c>
       <c r="Z12" s="2">
@@ -4968,17 +4942,15 @@
       <c r="AC12" s="2">
         <v>50.23289012</v>
       </c>
-      <c r="AD12" s="2">
-        <v>58.075834669999999</v>
-      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AJ12" s="1"/>
     </row>
@@ -5001,7 +4973,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7531760435571694E-4</v>
       </c>
       <c r="I13" s="1"/>
@@ -5010,36 +4982,35 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2">
         <v>22.22</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2">
+      <c r="O13" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q13" s="2">
         <v>39.96</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="14">
-        <f>P13/N13</f>
+      <c r="S13" s="14">
+        <f>Q13/N13</f>
         <v>1.7983798379837985</v>
       </c>
-      <c r="S13" s="1"/>
       <c r="T13" s="2">
         <v>2.76</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="2">
+      <c r="V13" s="28">
         <v>0.64639641299999995</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="28">
         <v>3.8783784749999999</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="28">
         <v>14.86711749</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="28">
         <v>24.05413665</v>
       </c>
       <c r="Z13" s="2">
@@ -5054,17 +5025,15 @@
       <c r="AC13" s="2">
         <v>60.991421750000001</v>
       </c>
-      <c r="AD13" s="2">
-        <v>69.783363499999993</v>
-      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AJ13" s="1"/>
     </row>
@@ -5087,7 +5056,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3463463463463469E-4</v>
       </c>
       <c r="I14" s="1"/>
@@ -5096,52 +5065,49 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U14" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
         <v>104</v>
@@ -5149,7 +5115,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AL14" s="1"/>
@@ -5175,7 +5141,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.0842020850040096E-4</v>
       </c>
       <c r="I15" s="1"/>
@@ -5184,60 +5150,57 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U15" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG15" s="28"/>
+      <c r="AF15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG15" s="27"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -5255,7 +5218,7 @@
       <c r="C16" s="2">
         <v>11.59</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>12.9</v>
       </c>
       <c r="E16" s="1"/>
@@ -5264,7 +5227,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6583261432269199E-3</v>
       </c>
       <c r="I16" s="1"/>
@@ -5273,55 +5236,52 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U16" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -5345,7 +5305,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3505843071786318E-3</v>
       </c>
       <c r="I17" s="1"/>
@@ -5354,36 +5314,35 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
         <v>33.33</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2">
+      <c r="O17" s="2">
+        <v>11.11</v>
+      </c>
+      <c r="Q17" s="2">
         <v>59.07</v>
       </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="14">
-        <f t="shared" ref="R17:R46" si="2">P17/N17</f>
+      <c r="S17" s="14">
+        <f>Q17/N17</f>
         <v>1.7722772277227723</v>
       </c>
-      <c r="S17" s="1"/>
       <c r="T17" s="2">
         <v>2.98</v>
       </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="2">
+      <c r="V17" s="28">
         <v>1.407350761</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="28">
         <v>4.7451761660000003</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="28">
         <v>15.65781789</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="28">
         <v>26.201214159999999</v>
       </c>
       <c r="Z17" s="2">
@@ -5398,12 +5357,10 @@
       <c r="AC17" s="2">
         <v>87.342455770000001</v>
       </c>
-      <c r="AD17" s="2">
-        <v>102.4510069</v>
-      </c>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -5427,7 +5384,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.3659751037344397E-3</v>
       </c>
       <c r="I18" s="1"/>
@@ -5436,42 +5393,41 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
         <v>44.44</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2">
+      <c r="O18" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q18" s="2">
         <v>68.319999999999993</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="14">
-        <f t="shared" si="2"/>
+      <c r="S18" s="14">
+        <f>Q18/N18</f>
         <v>1.5373537353735374</v>
       </c>
-      <c r="S18" s="1"/>
       <c r="T18" s="2">
         <v>2.89</v>
       </c>
-      <c r="U18" s="1"/>
-      <c r="V18" s="2">
+      <c r="V18" s="28">
         <v>0</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="28">
         <v>0.92698649499999997</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="28">
         <v>4.3012682709999996</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="28">
         <v>13.407465739999999</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18" s="28">
         <v>21.801685469999999</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA18" s="28">
         <v>31.579086239999999</v>
       </c>
       <c r="AB18" s="2">
@@ -5480,12 +5436,10 @@
       <c r="AC18" s="2">
         <v>56.299882949999997</v>
       </c>
-      <c r="AD18" s="2">
-        <v>64.958651380000006</v>
-      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -5509,7 +5463,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0961538461538466E-3</v>
       </c>
       <c r="I19" s="1"/>
@@ -5518,39 +5472,38 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2">
         <v>33.33</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2">
+      <c r="O19" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q19" s="2">
         <v>35.1</v>
       </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="14">
-        <f t="shared" si="2"/>
+      <c r="S19" s="14">
+        <f>Q19/N19</f>
         <v>1.0531053105310533</v>
       </c>
-      <c r="S19" s="1"/>
       <c r="T19" s="2">
         <v>1.85</v>
       </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="2">
+      <c r="V19" s="28">
         <v>1.0905723469999999</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="28">
         <v>4.907575563</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="28">
         <v>11.804960700000001</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="28">
         <v>16.16725009</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19" s="28">
         <v>20.563487769999998</v>
       </c>
       <c r="AA19" s="2">
@@ -5562,9 +5515,7 @@
       <c r="AC19" s="2">
         <v>29.980022200000001</v>
       </c>
-      <c r="AD19" s="2">
-        <v>33.797025419999997</v>
-      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -5591,7 +5542,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.2182163187855799E-3</v>
       </c>
       <c r="I20" s="1"/>
@@ -5600,53 +5551,50 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2">
         <v>33.33</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2">
+      <c r="O20" s="2">
+        <v>44.44</v>
+      </c>
+      <c r="Q20" s="2">
         <v>63.38</v>
       </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="14">
-        <f t="shared" si="2"/>
+      <c r="S20" s="14">
+        <f>Q20/N20</f>
         <v>1.9015901590159017</v>
       </c>
-      <c r="S20" s="1"/>
       <c r="T20" s="2">
         <v>2.83</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="2">
+      <c r="V20" s="28">
         <v>0</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="28">
         <v>1.18564482</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="28">
         <v>5.0503740989999999</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="28">
         <v>9.9568525769999994</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20" s="28">
         <v>16.895660979999999</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20" s="28">
         <v>20.501658920000001</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AB20" s="28">
         <v>30.50087027</v>
       </c>
       <c r="AC20" s="2">
         <v>40.059844400000003</v>
       </c>
-      <c r="AD20" s="2">
-        <v>46.607781940000002</v>
-      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -5673,7 +5621,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4775549188156642E-3</v>
       </c>
       <c r="I21" s="1"/>
@@ -5682,52 +5630,49 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S21" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U21" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -5754,7 +5699,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3595679012345679E-3</v>
       </c>
       <c r="I22" s="1"/>
@@ -5763,36 +5708,35 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2">
         <v>22.22</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2">
+      <c r="O22" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q22" s="2">
         <v>69.58</v>
       </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="14">
-        <f t="shared" si="2"/>
+      <c r="S22" s="14">
+        <f>Q22/N22</f>
         <v>3.1314131413141313</v>
       </c>
-      <c r="S22" s="1"/>
       <c r="T22" s="2">
         <v>3.36</v>
       </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="2">
+      <c r="V22" s="28">
         <v>1.0224115760000001</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="28">
         <v>6.7378660349999997</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="28">
         <v>20.775096659999999</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="28">
         <v>34.15463252</v>
       </c>
       <c r="Z22" s="2">
@@ -5807,9 +5751,7 @@
       <c r="AC22" s="2">
         <v>100.928608</v>
       </c>
-      <c r="AD22" s="2">
-        <v>118.41453629999999</v>
-      </c>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -5836,7 +5778,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.4225759768451523E-3</v>
       </c>
       <c r="I23" s="1"/>
@@ -5845,36 +5787,35 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2">
         <v>22.22</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2">
+      <c r="O23" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q23" s="2">
         <v>71.03</v>
       </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="14">
-        <f t="shared" si="2"/>
+      <c r="S23" s="14">
+        <f>Q23/N23</f>
         <v>3.196669666966697</v>
       </c>
-      <c r="S23" s="1"/>
       <c r="T23" s="2">
         <v>4.32</v>
       </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="2">
+      <c r="V23" s="28">
         <v>4.9495458169999997</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W23" s="28">
         <v>12.58984356</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="28">
         <v>26.698219829999999</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Y23" s="28">
         <v>33.260452469999997</v>
       </c>
       <c r="Z23" s="2">
@@ -5889,9 +5830,7 @@
       <c r="AC23" s="2">
         <v>44.015645929999998</v>
       </c>
-      <c r="AD23" s="2">
-        <v>44.015645929999998</v>
-      </c>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -5918,7 +5857,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.1442687747035579E-3</v>
       </c>
       <c r="I24" s="1"/>
@@ -5927,36 +5866,35 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
         <v>33.33</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2">
+      <c r="O24" s="2">
+        <v>11.11</v>
+      </c>
+      <c r="Q24" s="2">
         <v>61.99</v>
       </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="14">
-        <f t="shared" si="2"/>
+      <c r="S24" s="14">
+        <f>Q24/N24</f>
         <v>1.8598859885988601</v>
       </c>
-      <c r="S24" s="1"/>
       <c r="T24" s="2">
         <v>4.1500000000000004</v>
       </c>
-      <c r="U24" s="1"/>
-      <c r="V24" s="2">
+      <c r="V24" s="28">
         <v>1.9534479819999999</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="28">
         <v>5.2736711090000004</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="28">
         <v>15.234340489999999</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Y24" s="28">
         <v>24.557380040000002</v>
       </c>
       <c r="Z24" s="2">
@@ -5971,9 +5909,7 @@
       <c r="AC24" s="2">
         <v>57.188376150000003</v>
       </c>
-      <c r="AD24" s="2">
-        <v>62.713561409999997</v>
-      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -6000,7 +5936,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.4835646457268086E-3</v>
       </c>
       <c r="I25" s="1"/>
@@ -6013,48 +5949,45 @@
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S25" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U25" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -6084,7 +6017,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.7395596051632502E-3</v>
       </c>
       <c r="I26" s="1"/>
@@ -6093,36 +6026,35 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2">
         <v>22.22</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2">
+      <c r="O26" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q26" s="2">
         <v>47.12</v>
       </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="14">
-        <f t="shared" si="2"/>
+      <c r="S26" s="14">
+        <f>Q26/N26</f>
         <v>2.1206120612061206</v>
       </c>
-      <c r="S26" s="1"/>
       <c r="T26" s="2">
         <v>2.56</v>
       </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="2">
+      <c r="V26" s="28">
         <v>1.017123767</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W26" s="28">
         <v>7.9343132260000004</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26" s="28">
         <v>17.925968900000001</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="28">
         <v>26.937708430000001</v>
       </c>
       <c r="Z26" s="2">
@@ -6137,9 +6069,7 @@
       <c r="AC26" s="2">
         <v>49.169830900000001</v>
       </c>
-      <c r="AD26" s="2">
-        <v>52.581367729999997</v>
-      </c>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -6169,7 +6099,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.6493860845839009E-3</v>
       </c>
       <c r="I27" s="1"/>
@@ -6178,39 +6108,38 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2">
         <v>33.33</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2">
+      <c r="O27" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q27" s="2">
         <v>41.87</v>
       </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="14">
-        <f t="shared" si="2"/>
+      <c r="S27" s="14">
+        <f>Q27/N27</f>
         <v>1.2562256225622561</v>
       </c>
-      <c r="S27" s="1"/>
       <c r="T27" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="2">
+      <c r="V27" s="28">
         <v>0</v>
       </c>
-      <c r="W27" s="2">
+      <c r="W27" s="28">
         <v>3.9191568999999999</v>
       </c>
-      <c r="X27" s="2">
+      <c r="X27" s="28">
         <v>9.4617272999999997</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27" s="28">
         <v>16.739353999999999</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27" s="28">
         <v>23.943847600000002</v>
       </c>
       <c r="AA27" s="2">
@@ -6222,9 +6151,7 @@
       <c r="AC27" s="2">
         <v>34.837853099999997</v>
       </c>
-      <c r="AD27" s="2">
-        <v>36.896178900000002</v>
-      </c>
+      <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
@@ -6254,7 +6181,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.4514338575393151E-3</v>
       </c>
       <c r="I28" s="1"/>
@@ -6263,52 +6190,49 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S28" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U28" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD28" s="2"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
@@ -6335,7 +6259,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.5121056493030079E-3</v>
       </c>
       <c r="I29" s="1"/>
@@ -6344,52 +6268,49 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S29" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U29" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD29" s="2"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
@@ -6416,7 +6337,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1558796718322698E-2</v>
       </c>
       <c r="I30" s="1"/>
@@ -6425,52 +6346,49 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S30" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U30" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD30" s="2"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
@@ -6497,7 +6415,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0828351836037574E-2</v>
       </c>
       <c r="I31" s="1"/>
@@ -6506,39 +6424,38 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2">
         <v>22.22</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2">
+      <c r="O31" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q31" s="2">
         <v>25.57</v>
       </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="14">
-        <f t="shared" si="2"/>
+      <c r="S31" s="14">
+        <f>Q31/N31</f>
         <v>1.1507650765076509</v>
       </c>
-      <c r="S31" s="1"/>
       <c r="T31" s="2">
         <v>1.49</v>
       </c>
-      <c r="U31" s="1"/>
-      <c r="V31" s="2">
+      <c r="V31" s="28">
         <v>2.3174662380000002</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="28">
         <v>3.476199357</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X31" s="28">
         <v>9.4411431690000001</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="Y31" s="28">
         <v>17.321380340000001</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="Z31" s="30">
         <v>26.0887873</v>
       </c>
       <c r="AA31" s="2">
@@ -6550,9 +6467,7 @@
       <c r="AC31" s="2">
         <v>67.901423969999996</v>
       </c>
-      <c r="AD31" s="2">
-        <v>81.854418409999994</v>
-      </c>
+      <c r="AD31" s="2"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
@@ -6579,7 +6494,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2951991828396323E-2</v>
       </c>
       <c r="I32" s="1"/>
@@ -6588,42 +6503,41 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2">
         <v>33.33</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2">
+      <c r="O32" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="Q32" s="2">
         <v>38.19</v>
       </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="14">
-        <f t="shared" si="2"/>
+      <c r="S32" s="14">
+        <f>Q32/N32</f>
         <v>1.1458145814581457</v>
       </c>
-      <c r="S32" s="1"/>
       <c r="T32" s="2">
         <v>1.97</v>
       </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="2">
+      <c r="V32" s="28">
         <v>1.2116763450000001</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W32" s="28">
         <v>3.4458971329999999</v>
       </c>
-      <c r="X32" s="2">
+      <c r="X32" s="28">
         <v>10.715955210000001</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="Y32" s="28">
         <v>20.663515449999998</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="Z32" s="28">
         <v>24.495172490000002</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AA32" s="28">
         <v>30.553554210000001</v>
       </c>
       <c r="AB32" s="2">
@@ -6632,9 +6546,7 @@
       <c r="AC32" s="2">
         <v>40.92635396</v>
       </c>
-      <c r="AD32" s="2">
-        <v>45.833269180000002</v>
-      </c>
+      <c r="AD32" s="2"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
@@ -6661,7 +6573,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0949913644214162E-2</v>
       </c>
       <c r="I33" s="1"/>
@@ -6670,42 +6582,41 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2">
         <v>33.33</v>
       </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2">
+      <c r="O33" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="Q33" s="2">
         <v>39.5</v>
       </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="14">
-        <f t="shared" si="2"/>
+      <c r="S33" s="14">
+        <f>Q33/N33</f>
         <v>1.1851185118511851</v>
       </c>
-      <c r="S33" s="1"/>
       <c r="T33" s="2">
         <v>1.62</v>
       </c>
-      <c r="U33" s="1"/>
-      <c r="V33" s="2">
+      <c r="V33" s="28">
         <v>0.54187813500000004</v>
       </c>
-      <c r="W33" s="2">
+      <c r="W33" s="28">
         <v>1.625634405</v>
       </c>
-      <c r="X33" s="2">
+      <c r="X33" s="28">
         <v>5.0953474249999999</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="Y33" s="28">
         <v>12.222641510000001</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="Z33" s="28">
         <v>16.5914027</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AA33" s="28">
         <v>22.42760883</v>
       </c>
       <c r="AB33" s="2">
@@ -6714,9 +6625,7 @@
       <c r="AC33" s="2">
         <v>34.796299259999998</v>
       </c>
-      <c r="AD33" s="2">
-        <v>34.796299259999998</v>
-      </c>
+      <c r="AD33" s="2"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
@@ -6743,7 +6652,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0262589928057555E-2</v>
       </c>
       <c r="I34" s="1"/>
@@ -6752,52 +6661,49 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S34" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U34" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD34" s="2"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
@@ -6824,7 +6730,7 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3271170313986679E-2</v>
       </c>
       <c r="I35" s="1"/>
@@ -6833,52 +6739,49 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S35" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U35" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD35" s="2"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
@@ -6905,7 +6808,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2322643343051507E-2</v>
       </c>
       <c r="I36" s="1"/>
@@ -6914,42 +6817,41 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2">
         <v>22.22</v>
       </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2">
+      <c r="O36" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="Q36" s="2">
         <v>33.17</v>
       </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="14">
-        <f t="shared" si="2"/>
+      <c r="S36" s="14">
+        <f>Q36/N36</f>
         <v>1.492799279927993</v>
       </c>
-      <c r="S36" s="1"/>
       <c r="T36" s="2">
         <v>2.48</v>
       </c>
-      <c r="U36" s="1"/>
-      <c r="V36" s="2">
+      <c r="V36" s="28">
         <v>0</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W36" s="28">
         <v>2.3174662380000002</v>
       </c>
-      <c r="X36" s="2">
+      <c r="X36" s="28">
         <v>8.806371704</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Y36" s="28">
         <v>14.66914907</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="Z36" s="30">
         <v>22.589325160000001</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AA36" s="30">
         <v>26.78643503</v>
       </c>
       <c r="AB36" s="2">
@@ -6958,9 +6860,7 @@
       <c r="AC36" s="2">
         <v>36.726881839999997</v>
       </c>
-      <c r="AD36" s="2">
-        <v>39.222869369999998</v>
-      </c>
+      <c r="AD36" s="2"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
@@ -6987,7 +6887,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0125998225377108E-2</v>
       </c>
       <c r="I37" s="1"/>
@@ -6996,39 +6896,38 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2">
         <v>22.22</v>
       </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2">
+      <c r="O37" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="Q37" s="2">
         <v>28.5</v>
       </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="14">
-        <f t="shared" si="2"/>
+      <c r="S37" s="14">
+        <f>Q37/N37</f>
         <v>1.2826282628262826</v>
       </c>
-      <c r="S37" s="1"/>
       <c r="T37" s="2">
         <v>1.33</v>
       </c>
-      <c r="U37" s="1"/>
-      <c r="V37" s="2">
+      <c r="V37" s="28">
         <v>1.6938524150000001</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W37" s="28">
         <v>4.9188513330000001</v>
       </c>
-      <c r="X37" s="2">
+      <c r="X37" s="28">
         <v>13.064326769999999</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="Y37" s="28">
         <v>19.052999419999999</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="Z37" s="28">
         <v>22.887620909999999</v>
       </c>
       <c r="AA37" s="2">
@@ -7040,9 +6939,7 @@
       <c r="AC37" s="2">
         <v>45.854294869999997</v>
       </c>
-      <c r="AD37" s="2">
-        <v>54.365797919999999</v>
-      </c>
+      <c r="AD37" s="2"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
@@ -7069,7 +6966,7 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.8218435321456229E-3</v>
       </c>
       <c r="I38" s="1"/>
@@ -7078,52 +6975,49 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S38" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S38" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U38" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD38" s="2"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
@@ -7150,7 +7044,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1161971830985915E-2</v>
       </c>
       <c r="I39" s="1"/>
@@ -7159,39 +7053,38 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2">
         <v>22.22</v>
       </c>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2">
+      <c r="O39" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="Q39" s="2">
         <v>26.01</v>
       </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="14">
-        <f t="shared" si="2"/>
+      <c r="S39" s="14">
+        <f>Q39/N39</f>
         <v>1.1705670567056707</v>
       </c>
-      <c r="S39" s="1"/>
       <c r="T39" s="2">
         <v>1.37</v>
       </c>
-      <c r="U39" s="1"/>
-      <c r="V39" s="2">
+      <c r="V39" s="28">
         <v>0.88053439</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W39" s="28">
         <v>4.2335094550000001</v>
       </c>
-      <c r="X39" s="2">
+      <c r="X39" s="28">
         <v>10.64389658</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="Y39" s="28">
         <v>16.517793600000001</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="Z39" s="28">
         <v>21.83756236</v>
       </c>
       <c r="AA39" s="2">
@@ -7203,9 +7096,7 @@
       <c r="AC39" s="2">
         <v>44.62520653</v>
       </c>
-      <c r="AD39" s="2">
-        <v>50.365588449999997</v>
-      </c>
+      <c r="AD39" s="2"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -7232,7 +7123,7 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2007575757575757E-2</v>
       </c>
       <c r="I40" s="1"/>
@@ -7241,52 +7132,49 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S40" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U40" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD40" s="2"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
@@ -7313,7 +7201,7 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4655821917808219E-2</v>
       </c>
       <c r="I41" s="1"/>
@@ -7322,52 +7210,49 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S41" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U41" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD41" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD41" s="2"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
@@ -7403,52 +7288,49 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S42" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U42" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD42" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD42" s="2"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
@@ -7475,7 +7357,7 @@
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0324131789848619E-2</v>
       </c>
       <c r="I43" s="1"/>
@@ -7484,42 +7366,41 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2">
         <v>33.33</v>
       </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2">
+      <c r="O43" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="Q43" s="2">
         <v>37</v>
       </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="14">
-        <f t="shared" si="2"/>
+      <c r="S43" s="14">
+        <f>Q43/N43</f>
         <v>1.1101110111011101</v>
       </c>
-      <c r="S43" s="1"/>
       <c r="T43" s="2">
         <v>1.76</v>
       </c>
-      <c r="U43" s="1"/>
-      <c r="V43" s="16">
+      <c r="V43" s="29">
         <v>1.2573999810000001</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W43" s="28">
         <v>5.3511977230000003</v>
       </c>
-      <c r="X43" s="2">
+      <c r="X43" s="28">
         <v>10.97446139</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="Y43" s="28">
         <v>17.160051419999999</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="Z43" s="28">
         <v>22.783315089999999</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AA43" s="28">
         <v>26.555515029999999</v>
       </c>
       <c r="AB43" s="2">
@@ -7528,9 +7409,7 @@
       <c r="AC43" s="2">
         <v>32.294543789999999</v>
       </c>
-      <c r="AD43" s="2">
-        <v>33.41919652</v>
-      </c>
+      <c r="AD43" s="2"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
@@ -7557,7 +7436,7 @@
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4825309491059148E-2</v>
       </c>
       <c r="I44" s="1"/>
@@ -7566,39 +7445,38 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="17">
+      <c r="N44" s="16">
+        <v>33.33</v>
+      </c>
+      <c r="O44" s="16">
         <v>22.22</v>
       </c>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17">
+      <c r="Q44" s="16">
         <v>25.68</v>
       </c>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="18">
-        <f t="shared" si="2"/>
-        <v>1.1557155715571557</v>
-      </c>
-      <c r="S44" s="20"/>
-      <c r="T44" s="17">
+      <c r="S44" s="17">
+        <f>Q44/N44</f>
+        <v>0.77047704770477055</v>
+      </c>
+      <c r="T44" s="16">
         <v>2.1800000000000002</v>
       </c>
-      <c r="U44" s="1"/>
-      <c r="V44" s="2">
+      <c r="V44" s="28">
         <v>0.58618262399999999</v>
       </c>
-      <c r="W44" s="2">
+      <c r="W44" s="28">
         <v>2.6996941730000001</v>
       </c>
-      <c r="X44" s="2">
+      <c r="X44" s="28">
         <v>11.15374037</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="Y44" s="28">
         <v>17.49427502</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="Z44" s="28">
         <v>24.839122400000001</v>
       </c>
       <c r="AA44" s="2">
@@ -7610,9 +7488,7 @@
       <c r="AC44" s="2">
         <v>38.221685979999997</v>
       </c>
-      <c r="AD44" s="2">
-        <v>42.366623150000002</v>
-      </c>
+      <c r="AD44" s="2"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
@@ -7639,7 +7515,7 @@
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6480909829406986E-2</v>
       </c>
       <c r="I45" s="1"/>
@@ -7648,52 +7524,49 @@
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S45" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="T45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U45" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD45" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD45" s="2"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -7720,7 +7593,7 @@
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0835680751173709E-2</v>
       </c>
       <c r="I46" s="1"/>
@@ -7729,39 +7602,38 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2">
         <v>22.22</v>
       </c>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2">
+      <c r="O46" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="Q46" s="2">
         <v>23.04</v>
       </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="14">
-        <f t="shared" si="2"/>
+      <c r="S46" s="14">
+        <f>Q46/N46</f>
         <v>1.036903690369037</v>
       </c>
-      <c r="S46" s="1"/>
       <c r="T46" s="2">
         <v>1.08</v>
       </c>
-      <c r="U46" s="1"/>
-      <c r="V46" s="2">
+      <c r="V46" s="28">
         <v>0.50779774899999996</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W46" s="28">
         <v>2.601501506</v>
       </c>
-      <c r="X46" s="2">
+      <c r="X46" s="28">
         <v>9.6560532939999995</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="Y46" s="28">
         <v>14.73403079</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="Z46" s="28">
         <v>17.606568639999999</v>
       </c>
       <c r="AA46" s="2">
@@ -7773,9 +7645,7 @@
       <c r="AC46" s="2">
         <v>32.999432249999998</v>
       </c>
-      <c r="AD46" s="2">
-        <v>37.367673660000001</v>
-      </c>
+      <c r="AD46" s="2"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
@@ -7802,7 +7672,7 @@
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.13392382639504E-2</v>
       </c>
       <c r="I47" s="1"/>
@@ -7811,52 +7681,49 @@
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S47" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="T47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U47" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD47" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD47" s="2"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
@@ -7883,7 +7750,7 @@
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9001461988304096E-2</v>
       </c>
       <c r="I48" s="1"/>
@@ -7896,48 +7763,45 @@
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S48" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="T48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U48" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD48" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD48" s="2"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
@@ -7964,7 +7828,7 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0072052401746723E-2</v>
       </c>
       <c r="I49" s="1"/>
@@ -7973,52 +7837,49 @@
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S49" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="T49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U49" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD49" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD49" s="2"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
@@ -8045,7 +7906,7 @@
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5549050632911392E-2</v>
       </c>
       <c r="I50" s="1"/>
@@ -8058,48 +7919,45 @@
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S50" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="T50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U50" s="1"/>
+        <v>71</v>
+      </c>
       <c r="V50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD50" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD50" s="2"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
@@ -8299,9 +8157,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="N2:T2"/>
     <mergeCell ref="V2:AD2"/>
     <mergeCell ref="AF15:AG18"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zhao et al.-Data.xlsx
+++ b/zhao et al.-Data.xlsx
@@ -396,18 +396,6 @@
   </si>
   <si>
     <t>mass-standardized degree of satiety</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turning angle of stage 1 (°)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>average angular velocity of stage 1 (°/ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>peak angular velocity of stage 1 (°/ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,10 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>durations of stage 1 and 2 (ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>duration</t>
   </si>
   <si>
@@ -568,6 +552,62 @@
   </si>
   <si>
     <t xml:space="preserve">Distance moved of individuals during the whole fast-start escape response (mm) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">durations of Stage 1 and 2 (ms); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Stage 1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Stage 2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turning angle of Stage 1 (°)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average angular velocity of Stage 1 (°/ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peak angular velocity of Stage 1 (°/ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,11 +761,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,8 +776,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -742,13 +788,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1023,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1089,7 +1129,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
       <c r="B4" s="10">
@@ -1098,24 +1138,24 @@
       <c r="C4" s="10">
         <v>12.4</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="24">
         <v>95</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="21">
+      <c r="F4" s="27">
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="23">
+      <c r="H4" s="24">
         <v>95</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="22">
+      <c r="J4" s="26">
         <v>0.5474</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="23">
+      <c r="M4" s="24">
         <v>52</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -1126,23 +1166,23 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="10">
         <v>10.99</v>
       </c>
       <c r="C5" s="10">
         <v>12</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="23"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="23"/>
+      <c r="M5" s="24"/>
       <c r="P5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1151,23 +1191,23 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="10">
         <v>13.26</v>
       </c>
       <c r="C6" s="10">
         <v>13.4</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="23"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="23"/>
+      <c r="M6" s="24"/>
       <c r="P6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1176,7 +1216,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
       <c r="B7" s="10">
@@ -1185,24 +1225,24 @@
       <c r="C7" s="10">
         <v>12.4</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="24">
         <v>88</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="21">
+      <c r="F7" s="27">
         <v>1</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="23">
+      <c r="H7" s="24">
         <v>88</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="22">
+      <c r="J7" s="26">
         <v>0.53410000000000002</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="23">
+      <c r="M7" s="24">
         <v>47</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -1213,23 +1253,23 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="10">
         <v>9.4</v>
       </c>
       <c r="C8" s="10">
         <v>12</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="23"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="23"/>
+      <c r="M8" s="24"/>
       <c r="P8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1238,23 +1278,23 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="10">
         <v>9.85</v>
       </c>
       <c r="C9" s="10">
         <v>12.7</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="23"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="23"/>
+      <c r="M9" s="24"/>
       <c r="P9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1263,7 +1303,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="24">
         <v>3</v>
       </c>
       <c r="B10" s="10">
@@ -1272,24 +1312,24 @@
       <c r="C10" s="10">
         <v>12.7</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="24">
         <v>92</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="21">
+      <c r="F10" s="27">
         <v>1</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="23">
+      <c r="H10" s="24">
         <v>92</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="22">
+      <c r="J10" s="26">
         <v>0.51090000000000002</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="23">
+      <c r="M10" s="24">
         <v>47</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -1301,50 +1341,50 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="10">
         <v>12.1</v>
       </c>
       <c r="C11" s="10">
         <v>12.8</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="23"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="23"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="23"/>
+      <c r="M11" s="24"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="10">
         <v>13.49</v>
       </c>
       <c r="C12" s="10">
         <v>13.4</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="23"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="23"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="23"/>
+      <c r="M12" s="24"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="24">
         <v>4</v>
       </c>
       <c r="B13" s="10">
@@ -1353,67 +1393,67 @@
       <c r="C13" s="10">
         <v>12.5</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="24">
         <v>77</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="21">
+      <c r="F13" s="27">
         <v>1</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="23">
+      <c r="H13" s="24">
         <v>77</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="22">
+      <c r="J13" s="26">
         <v>0.44159999999999999</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="23">
+      <c r="M13" s="24">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="10">
         <v>9.94</v>
       </c>
       <c r="C14" s="10">
         <v>11</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="23"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="10">
         <v>10.46</v>
       </c>
       <c r="C15" s="10">
         <v>13</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="23"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="23"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="24">
         <v>5</v>
       </c>
       <c r="B16" s="10">
@@ -1422,67 +1462,67 @@
       <c r="C16" s="10">
         <v>12.6</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="24">
         <v>92</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="21">
+      <c r="F16" s="27">
         <v>1</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="23">
+      <c r="H16" s="24">
         <v>92</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="22">
+      <c r="J16" s="26">
         <v>0.5978</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="23">
+      <c r="M16" s="24">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="10">
         <v>11.19</v>
       </c>
       <c r="C17" s="10">
         <v>12.9</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="23"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="23"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="10">
         <v>11.74</v>
       </c>
       <c r="C18" s="10">
         <v>12.6</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="23"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="24">
         <v>6</v>
       </c>
       <c r="B19" s="10">
@@ -1491,67 +1531,67 @@
       <c r="C19" s="10">
         <v>12.3</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="24">
         <v>95</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="21">
+      <c r="F19" s="27">
         <v>1</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="23">
+      <c r="H19" s="24">
         <v>95</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="22">
+      <c r="J19" s="26">
         <v>0.53680000000000005</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="23">
+      <c r="M19" s="24">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="10">
         <v>11.8</v>
       </c>
       <c r="C20" s="10">
         <v>12.7</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="23"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="23"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="10">
         <v>11.67</v>
       </c>
       <c r="C21" s="10">
         <v>12.8</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="23"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="23"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="24">
         <v>7</v>
       </c>
       <c r="B22" s="10">
@@ -1560,67 +1600,67 @@
       <c r="C22" s="10">
         <v>12.7</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="24">
         <v>89</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="21">
+      <c r="F22" s="27">
         <v>1</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="23">
+      <c r="H22" s="24">
         <v>89</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="22">
+      <c r="J22" s="26">
         <v>0.41570000000000001</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="23">
+      <c r="M22" s="24">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="10">
         <v>12.06</v>
       </c>
       <c r="C23" s="10">
         <v>12.9</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="23"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="23"/>
+      <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="10">
         <v>10.52</v>
       </c>
       <c r="C24" s="10">
         <v>12.6</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="21"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="23"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="23"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="23"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="24">
         <v>8</v>
       </c>
       <c r="B25" s="10">
@@ -1629,67 +1669,67 @@
       <c r="C25" s="10">
         <v>12.6</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="24">
         <v>91</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="21">
+      <c r="F25" s="27">
         <v>1</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="23">
+      <c r="H25" s="24">
         <v>91</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="22">
+      <c r="J25" s="26">
         <v>0.51649999999999996</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="23">
+      <c r="M25" s="24">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="10">
         <v>13.1</v>
       </c>
       <c r="C26" s="10">
         <v>12.9</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="21"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="23"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="23"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="23"/>
+      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="10">
         <v>9.7799999999999994</v>
       </c>
       <c r="C27" s="10">
         <v>11.6</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="21"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="23"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="23"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="23"/>
+      <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="24">
         <v>9</v>
       </c>
       <c r="B28" s="10">
@@ -1698,67 +1738,67 @@
       <c r="C28" s="10">
         <v>12.6</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="24">
         <v>99</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="21">
+      <c r="F28" s="27">
         <v>1</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="23">
+      <c r="H28" s="24">
         <v>99</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="22">
+      <c r="J28" s="26">
         <v>0.47470000000000001</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="23">
+      <c r="M28" s="24">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="10">
         <v>12.47</v>
       </c>
       <c r="C29" s="10">
         <v>12.5</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="21"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="23"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="23"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="23"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="10">
         <v>11.46</v>
       </c>
       <c r="C30" s="10">
         <v>12.6</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="21"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="23"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="23"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="23"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="10">
@@ -1767,67 +1807,67 @@
       <c r="C31" s="11">
         <v>12.8</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="24">
         <v>102</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="23">
+      <c r="H31" s="24">
         <v>61</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="22">
+      <c r="J31" s="26">
         <v>0.52939999999999998</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="23">
+      <c r="M31" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="10">
         <v>11.77</v>
       </c>
       <c r="C32" s="10">
         <v>12.4</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="21"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="23"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="23"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="23"/>
+      <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="10">
         <v>14.75</v>
       </c>
       <c r="C33" s="10">
         <v>13.5</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="21"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="23"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="23"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="23"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="10">
@@ -1836,67 +1876,67 @@
       <c r="C34" s="10">
         <v>12.7</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="24">
         <v>98</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="23">
+      <c r="H34" s="24">
         <v>59</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="22">
+      <c r="J34" s="26">
         <v>0.55100000000000005</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="23">
+      <c r="M34" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="10">
         <v>11.2</v>
       </c>
       <c r="C35" s="10">
         <v>12.5</v>
       </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="21"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="23"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="23"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="10">
         <v>10.57</v>
       </c>
       <c r="C36" s="11">
         <v>12.2</v>
       </c>
-      <c r="D36" s="23"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="21"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="23"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="23"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="23"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="10">
@@ -1905,67 +1945,67 @@
       <c r="C37" s="10">
         <v>11.7</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="24">
         <v>101</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="23">
+      <c r="H37" s="24">
         <v>61</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="22">
+      <c r="J37" s="26">
         <v>0.56440000000000001</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="23">
+      <c r="M37" s="24">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="10">
         <v>12.91</v>
       </c>
       <c r="C38" s="10">
         <v>13.1</v>
       </c>
-      <c r="D38" s="23"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="21"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="23"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="23"/>
+      <c r="J38" s="24"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="23"/>
+      <c r="M38" s="24"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="10">
         <v>11.55</v>
       </c>
       <c r="C39" s="10">
         <v>13</v>
       </c>
-      <c r="D39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="21"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="23"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="23"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="23"/>
+      <c r="M39" s="24"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="10">
@@ -1974,67 +2014,67 @@
       <c r="C40" s="10">
         <v>12.4</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="24">
         <v>89</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="23">
+      <c r="H40" s="24">
         <v>53</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="22">
+      <c r="J40" s="26">
         <v>0.44940000000000002</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="23">
+      <c r="M40" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="10">
         <v>11</v>
       </c>
       <c r="C41" s="11">
         <v>12.6</v>
       </c>
-      <c r="D41" s="23"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="21"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="23"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="23"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="23"/>
+      <c r="M41" s="24"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="10">
         <v>11.56</v>
       </c>
       <c r="C42" s="10">
         <v>12.6</v>
       </c>
-      <c r="D42" s="23"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="21"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="23"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="23"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="23"/>
+      <c r="M42" s="24"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="10">
@@ -2043,67 +2083,67 @@
       <c r="C43" s="10">
         <v>12.5</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="24">
         <v>107</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="23">
+      <c r="H43" s="24">
         <v>64</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="22">
+      <c r="J43" s="26">
         <v>0.49530000000000002</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="23">
+      <c r="M43" s="24">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="10">
         <v>14.55</v>
       </c>
       <c r="C44" s="10">
         <v>12.5</v>
       </c>
-      <c r="D44" s="23"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="21"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="23"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="23"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="23"/>
+      <c r="M44" s="24"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="10">
         <v>12.39</v>
       </c>
       <c r="C45" s="10">
         <v>12.8</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="21"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="23"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="23"/>
+      <c r="J45" s="24"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="23"/>
+      <c r="M45" s="24"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="10">
@@ -2112,67 +2152,67 @@
       <c r="C46" s="11">
         <v>12.4</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="24">
         <v>89</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="23">
+      <c r="H46" s="24">
         <v>53</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="22">
+      <c r="J46" s="26">
         <v>0.51690000000000003</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="23">
+      <c r="M46" s="24">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="10">
         <v>10.81</v>
       </c>
       <c r="C47" s="10">
         <v>12</v>
       </c>
-      <c r="D47" s="23"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="21"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="23"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="23"/>
+      <c r="J47" s="24"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="23"/>
+      <c r="M47" s="24"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="10">
         <v>11.47</v>
       </c>
       <c r="C48" s="10">
         <v>12.9</v>
       </c>
-      <c r="D48" s="23"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="21"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="23"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="23"/>
+      <c r="J48" s="24"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="23"/>
+      <c r="M48" s="24"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="10">
@@ -2181,67 +2221,67 @@
       <c r="C49" s="10">
         <v>12.9</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="24">
         <v>101</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="23">
+      <c r="H49" s="24">
         <v>61</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="22">
+      <c r="J49" s="26">
         <v>0.47520000000000001</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="23">
+      <c r="M49" s="24">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="10">
         <v>10.78</v>
       </c>
       <c r="C50" s="11">
         <v>12.5</v>
       </c>
-      <c r="D50" s="23"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="21"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="23"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="23"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="23"/>
+      <c r="M50" s="24"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="10">
         <v>15.69</v>
       </c>
       <c r="C51" s="10">
         <v>13.1</v>
       </c>
-      <c r="D51" s="23"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="21"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="23"/>
+      <c r="H51" s="24"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="23"/>
+      <c r="J51" s="24"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="23"/>
+      <c r="M51" s="24"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="10">
@@ -2250,67 +2290,67 @@
       <c r="C52" s="11">
         <v>12.7</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="24">
         <v>111</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="23">
+      <c r="H52" s="24">
         <v>67</v>
       </c>
       <c r="I52" s="1"/>
-      <c r="J52" s="22">
+      <c r="J52" s="26">
         <v>0.55859999999999999</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="23">
+      <c r="M52" s="24">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="10">
         <v>13.14</v>
       </c>
       <c r="C53" s="10">
         <v>12.3</v>
       </c>
-      <c r="D53" s="23"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="21"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="23"/>
+      <c r="H53" s="24"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="23"/>
+      <c r="J53" s="24"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="23"/>
+      <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="10">
         <v>13.88</v>
       </c>
       <c r="C54" s="10">
         <v>12.3</v>
       </c>
-      <c r="D54" s="23"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="21"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="23"/>
+      <c r="H54" s="24"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="23"/>
+      <c r="J54" s="24"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="23"/>
+      <c r="M54" s="24"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="10">
@@ -2319,67 +2359,67 @@
       <c r="C55" s="10">
         <v>11.8</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="25">
         <v>77</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="23">
+      <c r="H55" s="24">
         <v>46</v>
       </c>
       <c r="I55" s="1"/>
-      <c r="J55" s="22">
+      <c r="J55" s="26">
         <v>0.48049999999999998</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="23">
+      <c r="M55" s="24">
         <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="10">
         <v>9.89</v>
       </c>
       <c r="C56" s="11">
         <v>12</v>
       </c>
-      <c r="D56" s="24"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="21"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="23"/>
+      <c r="H56" s="24"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="23"/>
+      <c r="J56" s="24"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="23"/>
+      <c r="M56" s="24"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="10">
         <v>10.16</v>
       </c>
       <c r="C57" s="10">
         <v>11.7</v>
       </c>
-      <c r="D57" s="24"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="21"/>
+      <c r="F57" s="27"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="23"/>
+      <c r="H57" s="24"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="23"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="23"/>
+      <c r="M57" s="24"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="10">
@@ -2388,68 +2428,68 @@
       <c r="C58" s="10">
         <v>12.2</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="25">
         <v>96</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="27" t="s">
         <v>34</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="23">
+      <c r="H58" s="24">
         <v>38</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="21" t="s">
-        <v>98</v>
+      <c r="J58" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="23">
+      <c r="M58" s="24">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="10">
         <v>12.5</v>
       </c>
       <c r="C59" s="10">
         <v>12.4</v>
       </c>
-      <c r="D59" s="24"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="21"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="23"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="21"/>
+      <c r="J59" s="27"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="23"/>
+      <c r="M59" s="24"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="10">
         <v>10.8</v>
       </c>
       <c r="C60" s="10">
         <v>12</v>
       </c>
-      <c r="D60" s="24"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="21"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="23"/>
+      <c r="H60" s="24"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="21"/>
+      <c r="J60" s="27"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="23"/>
-      <c r="Q60" s="21"/>
+      <c r="M60" s="24"/>
+      <c r="Q60" s="27"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="10">
@@ -2458,70 +2498,70 @@
       <c r="C61" s="11">
         <v>12.8</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="25">
         <v>105</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="21">
+      <c r="F61" s="27">
         <v>0.4</v>
       </c>
       <c r="G61" s="1"/>
-      <c r="H61" s="23">
+      <c r="H61" s="24">
         <v>42</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="21">
+      <c r="J61" s="27">
         <v>0.4</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="23">
+      <c r="M61" s="24">
         <v>42</v>
       </c>
-      <c r="Q61" s="21"/>
+      <c r="Q61" s="27"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="10">
         <v>13.83</v>
       </c>
       <c r="C62" s="10">
         <v>13.1</v>
       </c>
-      <c r="D62" s="24"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="21"/>
+      <c r="F62" s="27"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="23"/>
+      <c r="H62" s="24"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="21"/>
+      <c r="J62" s="27"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="23"/>
-      <c r="Q62" s="21"/>
+      <c r="M62" s="24"/>
+      <c r="Q62" s="27"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="10">
         <v>13.34</v>
       </c>
       <c r="C63" s="10">
         <v>12.5</v>
       </c>
-      <c r="D63" s="24"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="21"/>
+      <c r="F63" s="27"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="23"/>
+      <c r="H63" s="24"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="21"/>
+      <c r="J63" s="27"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="23"/>
-      <c r="Q63" s="21"/>
+      <c r="M63" s="24"/>
+      <c r="Q63" s="27"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="10">
@@ -2530,70 +2570,70 @@
       <c r="C64" s="10">
         <v>12.1</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D64" s="25">
         <v>98</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="27" t="s">
         <v>34</v>
       </c>
       <c r="G64" s="1"/>
-      <c r="H64" s="23">
+      <c r="H64" s="24">
         <v>39</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="22">
+      <c r="J64" s="26">
         <v>0.38779999999999998</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="23">
+      <c r="M64" s="24">
         <v>38</v>
       </c>
-      <c r="Q64" s="21"/>
+      <c r="Q64" s="27"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="10">
         <v>11.43</v>
       </c>
       <c r="C65" s="10">
         <v>12.5</v>
       </c>
-      <c r="D65" s="24"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="21"/>
+      <c r="F65" s="27"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="23"/>
+      <c r="H65" s="24"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="23"/>
+      <c r="J65" s="24"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="23"/>
-      <c r="Q65" s="21"/>
+      <c r="M65" s="24"/>
+      <c r="Q65" s="27"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="10">
         <v>13.07</v>
       </c>
       <c r="C66" s="10">
         <v>13</v>
       </c>
-      <c r="D66" s="24"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="21"/>
+      <c r="F66" s="27"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="23"/>
+      <c r="H66" s="24"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="23"/>
+      <c r="J66" s="24"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="23"/>
-      <c r="Q66" s="22"/>
+      <c r="M66" s="24"/>
+      <c r="Q66" s="26"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="10">
@@ -2602,70 +2642,70 @@
       <c r="C67" s="11">
         <v>12.2</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="24">
         <v>93</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="27" t="s">
         <v>34</v>
       </c>
       <c r="G67" s="1"/>
-      <c r="H67" s="23">
+      <c r="H67" s="24">
         <v>37</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="21" t="s">
+      <c r="J67" s="27" t="s">
         <v>34</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="23">
+      <c r="M67" s="24">
         <v>37</v>
       </c>
-      <c r="Q67" s="23"/>
+      <c r="Q67" s="24"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="10">
         <v>12.12</v>
       </c>
       <c r="C68" s="10">
         <v>12.7</v>
       </c>
-      <c r="D68" s="23"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="21"/>
+      <c r="F68" s="27"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="23"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="21"/>
+      <c r="J68" s="27"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="23"/>
-      <c r="Q68" s="23"/>
+      <c r="M68" s="24"/>
+      <c r="Q68" s="24"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="10">
         <v>10.83</v>
       </c>
       <c r="C69" s="10">
         <v>12.3</v>
       </c>
-      <c r="D69" s="23"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="21"/>
+      <c r="F69" s="27"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="23"/>
+      <c r="H69" s="24"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="21"/>
+      <c r="J69" s="27"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="23"/>
-      <c r="Q69" s="21"/>
+      <c r="M69" s="24"/>
+      <c r="Q69" s="27"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B70" s="10">
@@ -2674,70 +2714,70 @@
       <c r="C70" s="10">
         <v>12.9</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="24">
         <v>103</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="21" t="s">
+      <c r="F70" s="27" t="s">
         <v>34</v>
       </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="23">
+      <c r="H70" s="24">
         <v>41</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="22">
+      <c r="J70" s="26">
         <v>0.37859999999999999</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="23">
+      <c r="M70" s="24">
         <v>39</v>
       </c>
-      <c r="Q70" s="21"/>
+      <c r="Q70" s="27"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="10">
         <v>11.91</v>
       </c>
       <c r="C71" s="10">
         <v>13</v>
       </c>
-      <c r="D71" s="23"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="21"/>
+      <c r="F71" s="27"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="23"/>
+      <c r="H71" s="24"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="23"/>
+      <c r="J71" s="24"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="23"/>
-      <c r="Q71" s="21"/>
+      <c r="M71" s="24"/>
+      <c r="Q71" s="27"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="10">
         <v>13.15</v>
       </c>
       <c r="C72" s="11">
         <v>13.5</v>
       </c>
-      <c r="D72" s="23"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="21"/>
+      <c r="F72" s="27"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="23"/>
+      <c r="H72" s="24"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="23"/>
+      <c r="J72" s="24"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="23"/>
-      <c r="Q72" s="22"/>
+      <c r="M72" s="24"/>
+      <c r="Q72" s="26"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B73" s="10">
@@ -2746,70 +2786,70 @@
       <c r="C73" s="10">
         <v>11.6</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="24">
         <v>94</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="21" t="s">
+      <c r="F73" s="27" t="s">
         <v>34</v>
       </c>
       <c r="G73" s="1"/>
-      <c r="H73" s="23">
+      <c r="H73" s="24">
         <v>38</v>
       </c>
       <c r="I73" s="1"/>
-      <c r="J73" s="21" t="s">
+      <c r="J73" s="27" t="s">
         <v>34</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="23">
+      <c r="M73" s="24">
         <v>38</v>
       </c>
-      <c r="Q73" s="23"/>
+      <c r="Q73" s="24"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="10">
         <v>12.77</v>
       </c>
       <c r="C74" s="10">
         <v>12.8</v>
       </c>
-      <c r="D74" s="23"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="21"/>
+      <c r="F74" s="27"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="23"/>
+      <c r="H74" s="24"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="21"/>
+      <c r="J74" s="27"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="23"/>
-      <c r="Q74" s="23"/>
+      <c r="M74" s="24"/>
+      <c r="Q74" s="24"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="10">
         <v>11.44</v>
       </c>
       <c r="C75" s="10">
         <v>12.2</v>
       </c>
-      <c r="D75" s="23"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="21"/>
+      <c r="F75" s="27"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="23"/>
+      <c r="H75" s="24"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="21"/>
+      <c r="J75" s="27"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="23"/>
-      <c r="Q75" s="21"/>
+      <c r="M75" s="24"/>
+      <c r="Q75" s="27"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="10">
@@ -2818,70 +2858,70 @@
       <c r="C76" s="10">
         <v>11.8</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="24">
         <v>96</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="27" t="s">
         <v>34</v>
       </c>
       <c r="G76" s="1"/>
-      <c r="H76" s="23">
+      <c r="H76" s="24">
         <v>38</v>
       </c>
       <c r="I76" s="1"/>
-      <c r="J76" s="22">
+      <c r="J76" s="26">
         <v>0.36459999999999998</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="23">
+      <c r="M76" s="24">
         <v>35</v>
       </c>
-      <c r="Q76" s="21"/>
+      <c r="Q76" s="27"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="10">
         <v>10.71</v>
       </c>
       <c r="C77" s="10">
         <v>12.4</v>
       </c>
-      <c r="D77" s="23"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="21"/>
+      <c r="F77" s="27"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="23"/>
+      <c r="H77" s="24"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="23"/>
+      <c r="J77" s="24"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="23"/>
-      <c r="Q77" s="21"/>
+      <c r="M77" s="24"/>
+      <c r="Q77" s="27"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="10">
         <v>13.44</v>
       </c>
       <c r="C78" s="10">
         <v>12.7</v>
       </c>
-      <c r="D78" s="23"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="21"/>
+      <c r="F78" s="27"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="23"/>
+      <c r="H78" s="24"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="23"/>
+      <c r="J78" s="24"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="23"/>
-      <c r="Q78" s="22"/>
+      <c r="M78" s="24"/>
+      <c r="Q78" s="26"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="10">
@@ -2890,70 +2930,70 @@
       <c r="C79" s="10">
         <v>11.4</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="24">
         <v>83</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="27" t="s">
         <v>34</v>
       </c>
       <c r="G79" s="1"/>
-      <c r="H79" s="23">
+      <c r="H79" s="24">
         <v>33</v>
       </c>
       <c r="I79" s="1"/>
-      <c r="J79" s="22">
+      <c r="J79" s="26">
         <v>0.3735</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="23">
+      <c r="M79" s="24">
         <v>31</v>
       </c>
-      <c r="Q79" s="23"/>
+      <c r="Q79" s="24"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="10">
         <v>10.78</v>
       </c>
       <c r="C80" s="10">
         <v>12</v>
       </c>
-      <c r="D80" s="23"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="21"/>
+      <c r="F80" s="27"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="23"/>
+      <c r="H80" s="24"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="23"/>
+      <c r="J80" s="24"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="23"/>
-      <c r="Q80" s="23"/>
+      <c r="M80" s="24"/>
+      <c r="Q80" s="24"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="10">
         <v>11.89</v>
       </c>
       <c r="C81" s="10">
         <v>12.7</v>
       </c>
-      <c r="D81" s="23"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="21"/>
+      <c r="F81" s="27"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="23"/>
+      <c r="H81" s="24"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="23"/>
+      <c r="J81" s="24"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="23"/>
-      <c r="Q81" s="22"/>
+      <c r="M81" s="24"/>
+      <c r="Q81" s="26"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B82" s="10">
@@ -2962,76 +3002,76 @@
       <c r="C82" s="10">
         <v>12.2</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D82" s="24">
         <v>105</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="21">
+      <c r="F82" s="27">
         <v>0.4</v>
       </c>
       <c r="G82" s="1"/>
-      <c r="H82" s="23">
+      <c r="H82" s="24">
         <v>42</v>
       </c>
       <c r="I82" s="1"/>
-      <c r="J82" s="21">
+      <c r="J82" s="27">
         <v>0.4</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="23">
+      <c r="M82" s="24">
         <v>42</v>
       </c>
-      <c r="Q82" s="23"/>
+      <c r="Q82" s="24"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="10">
         <v>13.65</v>
       </c>
       <c r="C83" s="10">
         <v>12.9</v>
       </c>
-      <c r="D83" s="23"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="21"/>
+      <c r="F83" s="27"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="23"/>
+      <c r="H83" s="24"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="21"/>
+      <c r="J83" s="27"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="23"/>
-      <c r="Q83" s="23"/>
+      <c r="M83" s="24"/>
+      <c r="Q83" s="24"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="10">
         <v>12.93</v>
       </c>
       <c r="C84" s="10">
         <v>12.6</v>
       </c>
-      <c r="D84" s="23"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="21"/>
+      <c r="F84" s="27"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="23"/>
+      <c r="H84" s="24"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="21"/>
+      <c r="J84" s="27"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="23"/>
-      <c r="Q84" s="21"/>
+      <c r="M84" s="24"/>
+      <c r="Q84" s="27"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
       <c r="J85" s="19"/>
-      <c r="Q85" s="21"/>
+      <c r="Q85" s="27"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
-      <c r="Q86" s="21"/>
+      <c r="Q86" s="27"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
@@ -3056,46 +3096,113 @@
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="M70:M72"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="M46:M48"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="M79:M81"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="M49:M51"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="M55:M57"/>
-    <mergeCell ref="M58:M60"/>
-    <mergeCell ref="M61:M63"/>
-    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="Q60:Q62"/>
+    <mergeCell ref="Q63:Q65"/>
+    <mergeCell ref="Q66:Q68"/>
+    <mergeCell ref="Q69:Q71"/>
+    <mergeCell ref="Q72:Q74"/>
+    <mergeCell ref="Q75:Q77"/>
+    <mergeCell ref="Q78:Q80"/>
+    <mergeCell ref="Q81:Q83"/>
+    <mergeCell ref="Q84:Q86"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H30"/>
     <mergeCell ref="J82:J84"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="M7:M9"/>
@@ -3120,113 +3227,46 @@
     <mergeCell ref="J61:J63"/>
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="J31:J33"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="Q60:Q62"/>
-    <mergeCell ref="Q63:Q65"/>
-    <mergeCell ref="Q66:Q68"/>
-    <mergeCell ref="Q69:Q71"/>
-    <mergeCell ref="Q72:Q74"/>
-    <mergeCell ref="Q75:Q77"/>
-    <mergeCell ref="Q78:Q80"/>
-    <mergeCell ref="Q81:Q83"/>
-    <mergeCell ref="Q84:Q86"/>
+    <mergeCell ref="M76:M78"/>
+    <mergeCell ref="M79:M81"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="M55:M57"/>
+    <mergeCell ref="M58:M60"/>
+    <mergeCell ref="M61:M63"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="M70:M72"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3286,7 +3326,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
       <c r="B4" s="2">
@@ -3296,22 +3336,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="23">
+      <c r="G4" s="24">
         <v>102</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="22">
+      <c r="J4" s="26">
         <v>0.81369999999999998</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="23">
+      <c r="N4" s="24">
         <v>83</v>
       </c>
       <c r="O4" s="7"/>
@@ -3323,7 +3363,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="2">
         <v>12.22</v>
       </c>
@@ -3331,16 +3371,16 @@
         <v>12.2</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="7"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="23"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="7"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="23"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="7"/>
       <c r="Q5" s="1" t="s">
         <v>31</v>
@@ -3350,7 +3390,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="2">
         <v>11.33</v>
       </c>
@@ -3358,16 +3398,16 @@
         <v>12.6</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="7"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="23"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="7"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="23"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="7"/>
       <c r="Q6" s="1" t="s">
         <v>36</v>
@@ -3377,7 +3417,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
       <c r="B7" s="2">
@@ -3387,22 +3427,22 @@
         <v>12.3</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="21">
+      <c r="E7" s="27">
         <v>1</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="23">
+      <c r="G7" s="24">
         <v>93</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="24" t="s">
         <v>55</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="24" t="s">
         <v>55</v>
       </c>
       <c r="O7" s="7"/>
@@ -3414,7 +3454,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2">
         <v>10.33</v>
       </c>
@@ -3422,16 +3462,16 @@
         <v>11.2</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="23"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="7"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="7"/>
       <c r="Q8" s="1" t="s">
         <v>56</v>
@@ -3441,7 +3481,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="2">
         <v>11.9</v>
       </c>
@@ -3449,16 +3489,16 @@
         <v>12</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="7"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="23"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="7"/>
       <c r="Q9" s="1" t="s">
         <v>57</v>
@@ -3469,7 +3509,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="24">
         <v>3</v>
       </c>
       <c r="B10" s="2">
@@ -3479,28 +3519,28 @@
         <v>12.5</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="21">
+      <c r="E10" s="27">
         <v>1</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="23">
+      <c r="G10" s="24">
         <v>114</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="22">
+      <c r="J10" s="26">
         <v>0.77190000000000003</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="23">
+      <c r="N10" s="24">
         <v>88</v>
       </c>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="2">
         <v>13.93</v>
       </c>
@@ -3508,22 +3548,22 @@
         <v>12.6</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="23"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="23"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="7"/>
       <c r="R11" s="3"/>
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2">
         <v>15.86</v>
       </c>
@@ -3531,19 +3571,19 @@
         <v>13.5</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="7"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="23"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="23"/>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="2">
@@ -3553,27 +3593,27 @@
         <v>12.1</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="21">
+      <c r="E13" s="27">
         <v>0.6</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="23">
+      <c r="G13" s="24">
         <v>63</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="24" t="s">
         <v>55</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="2">
         <v>12.37</v>
       </c>
@@ -3581,22 +3621,22 @@
         <v>13.2</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="7"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="7"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="7"/>
       <c r="R14" s="3"/>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="2">
         <v>12.41</v>
       </c>
@@ -3604,22 +3644,22 @@
         <v>12.5</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="23"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="7"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="7"/>
       <c r="R15" s="3"/>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="2">
@@ -3629,22 +3669,22 @@
         <v>12.8</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="21">
+      <c r="E16" s="27">
         <v>0.6</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="23">
+      <c r="G16" s="24">
         <v>55</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="22">
+      <c r="J16" s="26">
         <v>0.72729999999999995</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="23">
+      <c r="N16" s="24">
         <v>40</v>
       </c>
       <c r="O16" s="7"/>
@@ -3652,7 +3692,7 @@
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="2">
         <v>13.19</v>
       </c>
@@ -3660,22 +3700,22 @@
         <v>12.5</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="23"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="7"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="7"/>
       <c r="R17" s="3"/>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="2">
         <v>9.56</v>
       </c>
@@ -3683,22 +3723,22 @@
         <v>11.1</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="7"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="7"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="23"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="7"/>
       <c r="R18" s="3"/>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="2">
@@ -3708,27 +3748,27 @@
         <v>12.2</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <v>0.6</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="23">
+      <c r="G19" s="24">
         <v>67</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="22">
+      <c r="J19" s="26">
         <v>0.80600000000000005</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="23">
+      <c r="N19" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="2">
         <v>13.46</v>
       </c>
@@ -3736,19 +3776,19 @@
         <v>12.5</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="23"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="7"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="23"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="2">
         <v>10.220000000000001</v>
       </c>
@@ -3756,19 +3796,19 @@
         <v>11.7</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="23"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="7"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="23"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="2">
@@ -3778,27 +3818,27 @@
         <v>12.2</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="21">
+      <c r="E22" s="27">
         <v>0.4</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="23">
+      <c r="G22" s="24">
         <v>38</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="22">
+      <c r="J22" s="26">
         <v>0.92110000000000003</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="23">
+      <c r="N22" s="24">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="2">
         <v>11.4</v>
       </c>
@@ -3806,19 +3846,19 @@
         <v>13</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="23"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="7"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="23"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="7"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="23"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="2">
         <v>14.91</v>
       </c>
@@ -3826,19 +3866,19 @@
         <v>13.2</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="23"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="23"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="7"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="23"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="2">
@@ -3848,27 +3888,27 @@
         <v>12.5</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="21">
+      <c r="E25" s="27">
         <v>0.4</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="23">
+      <c r="G25" s="24">
         <v>31</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="22">
+      <c r="J25" s="26">
         <v>0.9032</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="23">
+      <c r="N25" s="24">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="2">
         <v>12.04</v>
       </c>
@@ -3876,19 +3916,19 @@
         <v>12.2</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="7"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="23"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="7"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="23"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="2">
         <v>11.41</v>
       </c>
@@ -3896,19 +3936,19 @@
         <v>11.9</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="7"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="23"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="7"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="23"/>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="2">
@@ -3918,28 +3958,28 @@
         <v>12.2</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="21">
+      <c r="E28" s="27">
         <v>0.4</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="23">
+      <c r="G28" s="24">
         <v>42</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="22">
+      <c r="J28" s="26">
         <v>0.76190000000000002</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="23">
+      <c r="N28" s="24">
         <v>32</v>
       </c>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="2">
         <v>11.63</v>
       </c>
@@ -3947,20 +3987,20 @@
         <v>12.6</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="23"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="7"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="23"/>
+      <c r="N29" s="24"/>
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2">
         <v>11.11</v>
       </c>
@@ -3968,29 +4008,40 @@
         <v>12.1</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="7"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="23"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="7"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="23"/>
+      <c r="N30" s="24"/>
       <c r="O30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="J7:J9"/>
@@ -4007,26 +4058,15 @@
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="G13:G15"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4037,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V7" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4110,17 +4150,17 @@
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
+      <c r="V2" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
@@ -4158,19 +4198,19 @@
         <v>68</v>
       </c>
       <c r="M3" s="20"/>
-      <c r="N3" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="25"/>
+      <c r="N3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="30"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="V3" s="15" t="s">
         <v>72</v>
@@ -4236,7 +4276,7 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2">
@@ -4249,25 +4289,25 @@
         <v>46.64</v>
       </c>
       <c r="S4" s="2">
-        <f>Q4/N4</f>
+        <f t="shared" ref="S4:S9" si="0">Q4/N4</f>
         <v>1.3993399339933994</v>
       </c>
       <c r="T4" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="21">
         <v>1.076940193</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="21">
         <v>3.8226097220000002</v>
       </c>
-      <c r="X4" s="28">
+      <c r="X4" s="21">
         <v>8.0281956189999999</v>
       </c>
-      <c r="Y4" s="28">
+      <c r="Y4" s="21">
         <v>18.811050900000001</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="Z4" s="21">
         <v>24.950554610000001</v>
       </c>
       <c r="AA4" s="2">
@@ -4310,7 +4350,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="13">
-        <f t="shared" ref="H5:H50" si="0">F5*0.00634/C5*100%</f>
+        <f t="shared" ref="H5:H50" si="1">F5*0.00634/C5*100%</f>
         <v>5.585903083700441E-4</v>
       </c>
       <c r="I5" s="1"/>
@@ -4319,7 +4359,7 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2">
@@ -4332,22 +4372,22 @@
         <v>59.71</v>
       </c>
       <c r="S5" s="14">
-        <f>Q5/N5</f>
+        <f t="shared" si="0"/>
         <v>1.7914791479147916</v>
       </c>
       <c r="T5" s="2">
         <v>2.72</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="21">
         <v>1.7074273250000001</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="21">
         <v>9.3432744870000004</v>
       </c>
-      <c r="X5" s="28">
+      <c r="X5" s="21">
         <v>20.78289603</v>
       </c>
-      <c r="Y5" s="28">
+      <c r="Y5" s="21">
         <v>35.558693239999997</v>
       </c>
       <c r="Z5" s="2">
@@ -4393,7 +4433,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6912028725314185E-4</v>
       </c>
       <c r="I6" s="1"/>
@@ -4402,7 +4442,7 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
@@ -4415,22 +4455,22 @@
         <v>52.42</v>
       </c>
       <c r="S6" s="14">
-        <f>Q6/N6</f>
+        <f t="shared" si="0"/>
         <v>2.3591359135913592</v>
       </c>
       <c r="T6" s="2">
         <v>3.74</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="21">
         <v>0.575958521</v>
       </c>
-      <c r="W6" s="28">
+      <c r="W6" s="21">
         <v>5.0743383629999999</v>
       </c>
-      <c r="X6" s="28">
+      <c r="X6" s="21">
         <v>16.722378590000002</v>
       </c>
-      <c r="Y6" s="28">
+      <c r="Y6" s="21">
         <v>28.38464978</v>
       </c>
       <c r="Z6" s="2">
@@ -4448,7 +4488,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -4476,7 +4516,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9415432579890881E-4</v>
       </c>
       <c r="I7" s="1"/>
@@ -4485,7 +4525,7 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
@@ -4498,22 +4538,22 @@
         <v>33.85</v>
       </c>
       <c r="S7" s="14">
-        <f>Q7/N7</f>
+        <f t="shared" si="0"/>
         <v>1.5234023402340235</v>
       </c>
       <c r="T7" s="2">
         <v>2.42</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="21">
         <v>2.1012236949999998</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="21">
         <v>9.6996748180000001</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="21">
         <v>20.413855439999999</v>
       </c>
-      <c r="Y7" s="28">
+      <c r="Y7" s="21">
         <v>26.690529959999999</v>
       </c>
       <c r="Z7" s="2">
@@ -4531,7 +4571,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -4559,7 +4599,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7993943981831943E-4</v>
       </c>
       <c r="I8" s="1"/>
@@ -4568,7 +4608,7 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
@@ -4581,25 +4621,25 @@
         <v>40.83</v>
       </c>
       <c r="S8" s="14">
-        <f>Q8/N8</f>
+        <f t="shared" si="0"/>
         <v>1.8375337533753375</v>
       </c>
       <c r="T8" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="21">
         <v>0.54187813500000004</v>
       </c>
-      <c r="W8" s="28">
+      <c r="W8" s="21">
         <v>3.607203766</v>
       </c>
-      <c r="X8" s="28">
+      <c r="X8" s="21">
         <v>11.75341837</v>
       </c>
-      <c r="Y8" s="28">
+      <c r="Y8" s="21">
         <v>20.00706023</v>
       </c>
-      <c r="Z8" s="28">
+      <c r="Z8" s="21">
         <v>26.554598639999998</v>
       </c>
       <c r="AA8" s="2">
@@ -4614,7 +4654,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -4642,7 +4682,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7952468007312617E-4</v>
       </c>
       <c r="I9" s="1"/>
@@ -4651,7 +4691,7 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2">
@@ -4664,22 +4704,22 @@
         <v>42.02</v>
       </c>
       <c r="S9" s="14">
-        <f>Q9/N9</f>
+        <f t="shared" si="0"/>
         <v>1.2607260726072609</v>
       </c>
       <c r="T9" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="21">
         <v>0</v>
       </c>
-      <c r="W9" s="28">
+      <c r="W9" s="21">
         <v>4.9958695669999997</v>
       </c>
-      <c r="X9" s="28">
+      <c r="X9" s="21">
         <v>13.47760399</v>
       </c>
-      <c r="Y9" s="28">
+      <c r="Y9" s="21">
         <v>19.65596532</v>
       </c>
       <c r="Z9" s="2">
@@ -4697,12 +4737,12 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AJ9" s="1"/>
     </row>
@@ -4725,7 +4765,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2278978388998038E-4</v>
       </c>
       <c r="I10" s="1"/>
@@ -4734,7 +4774,7 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
@@ -4779,12 +4819,12 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ10" s="1"/>
     </row>
@@ -4807,7 +4847,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0459476707083598E-4</v>
       </c>
       <c r="I11" s="1"/>
@@ -4816,7 +4856,7 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2">
@@ -4835,16 +4875,16 @@
       <c r="T11" s="2">
         <v>2.84</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="21">
         <v>2.2765697770000002</v>
       </c>
-      <c r="W11" s="28">
+      <c r="W11" s="21">
         <v>6.8651428589999997</v>
       </c>
-      <c r="X11" s="28">
+      <c r="X11" s="21">
         <v>17.497601150000001</v>
       </c>
-      <c r="Y11" s="28">
+      <c r="Y11" s="21">
         <v>31.204366270000001</v>
       </c>
       <c r="Z11" s="2">
@@ -4862,12 +4902,12 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AJ11" s="1"/>
     </row>
@@ -4890,7 +4930,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8763557483731016E-4</v>
       </c>
       <c r="I12" s="1"/>
@@ -4899,7 +4939,7 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
@@ -4918,16 +4958,16 @@
       <c r="T12" s="2">
         <v>1.91</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="21">
         <v>0.74610165900000003</v>
       </c>
-      <c r="W12" s="28">
+      <c r="W12" s="21">
         <v>8.2998052399999995</v>
       </c>
-      <c r="X12" s="28">
+      <c r="X12" s="21">
         <v>16.9526547</v>
       </c>
-      <c r="Y12" s="28">
+      <c r="Y12" s="21">
         <v>24.795599249999999</v>
       </c>
       <c r="Z12" s="2">
@@ -4945,12 +4985,12 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AJ12" s="1"/>
     </row>
@@ -4973,7 +5013,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7531760435571694E-4</v>
       </c>
       <c r="I13" s="1"/>
@@ -4982,7 +5022,7 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2">
@@ -5001,16 +5041,16 @@
       <c r="T13" s="2">
         <v>2.76</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="21">
         <v>0.64639641299999995</v>
       </c>
-      <c r="W13" s="28">
+      <c r="W13" s="21">
         <v>3.8783784749999999</v>
       </c>
-      <c r="X13" s="28">
+      <c r="X13" s="21">
         <v>14.86711749</v>
       </c>
-      <c r="Y13" s="28">
+      <c r="Y13" s="21">
         <v>24.05413665</v>
       </c>
       <c r="Z13" s="2">
@@ -5028,12 +5068,12 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AJ13" s="1"/>
     </row>
@@ -5056,7 +5096,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3463463463463469E-4</v>
       </c>
       <c r="I14" s="1"/>
@@ -5110,12 +5150,12 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AL14" s="1"/>
@@ -5141,7 +5181,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0842020850040096E-4</v>
       </c>
       <c r="I15" s="1"/>
@@ -5194,13 +5234,13 @@
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG15" s="27"/>
+      <c r="AF15" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG15" s="29"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -5227,7 +5267,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6583261432269199E-3</v>
       </c>
       <c r="I16" s="1"/>
@@ -5280,8 +5320,8 @@
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -5305,7 +5345,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3505843071786318E-3</v>
       </c>
       <c r="I17" s="1"/>
@@ -5314,7 +5354,7 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
@@ -5333,16 +5373,16 @@
       <c r="T17" s="2">
         <v>2.98</v>
       </c>
-      <c r="V17" s="28">
+      <c r="V17" s="21">
         <v>1.407350761</v>
       </c>
-      <c r="W17" s="28">
+      <c r="W17" s="21">
         <v>4.7451761660000003</v>
       </c>
-      <c r="X17" s="28">
+      <c r="X17" s="21">
         <v>15.65781789</v>
       </c>
-      <c r="Y17" s="28">
+      <c r="Y17" s="21">
         <v>26.201214159999999</v>
       </c>
       <c r="Z17" s="2">
@@ -5359,8 +5399,8 @@
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -5384,7 +5424,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3659751037344397E-3</v>
       </c>
       <c r="I18" s="1"/>
@@ -5393,7 +5433,7 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
@@ -5412,22 +5452,22 @@
       <c r="T18" s="2">
         <v>2.89</v>
       </c>
-      <c r="V18" s="28">
+      <c r="V18" s="21">
         <v>0</v>
       </c>
-      <c r="W18" s="28">
+      <c r="W18" s="21">
         <v>0.92698649499999997</v>
       </c>
-      <c r="X18" s="28">
+      <c r="X18" s="21">
         <v>4.3012682709999996</v>
       </c>
-      <c r="Y18" s="28">
+      <c r="Y18" s="21">
         <v>13.407465739999999</v>
       </c>
-      <c r="Z18" s="28">
+      <c r="Z18" s="21">
         <v>21.801685469999999</v>
       </c>
-      <c r="AA18" s="28">
+      <c r="AA18" s="21">
         <v>31.579086239999999</v>
       </c>
       <c r="AB18" s="2">
@@ -5438,8 +5478,8 @@
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -5463,7 +5503,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0961538461538466E-3</v>
       </c>
       <c r="I19" s="1"/>
@@ -5472,7 +5512,7 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2">
@@ -5491,19 +5531,19 @@
       <c r="T19" s="2">
         <v>1.85</v>
       </c>
-      <c r="V19" s="28">
+      <c r="V19" s="21">
         <v>1.0905723469999999</v>
       </c>
-      <c r="W19" s="28">
+      <c r="W19" s="21">
         <v>4.907575563</v>
       </c>
-      <c r="X19" s="28">
+      <c r="X19" s="21">
         <v>11.804960700000001</v>
       </c>
-      <c r="Y19" s="28">
+      <c r="Y19" s="21">
         <v>16.16725009</v>
       </c>
-      <c r="Z19" s="28">
+      <c r="Z19" s="21">
         <v>20.563487769999998</v>
       </c>
       <c r="AA19" s="2">
@@ -5542,7 +5582,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2182163187855799E-3</v>
       </c>
       <c r="I20" s="1"/>
@@ -5551,7 +5591,7 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2">
@@ -5570,25 +5610,25 @@
       <c r="T20" s="2">
         <v>2.83</v>
       </c>
-      <c r="V20" s="28">
+      <c r="V20" s="21">
         <v>0</v>
       </c>
-      <c r="W20" s="28">
+      <c r="W20" s="21">
         <v>1.18564482</v>
       </c>
-      <c r="X20" s="28">
+      <c r="X20" s="21">
         <v>5.0503740989999999</v>
       </c>
-      <c r="Y20" s="28">
+      <c r="Y20" s="21">
         <v>9.9568525769999994</v>
       </c>
-      <c r="Z20" s="28">
+      <c r="Z20" s="21">
         <v>16.895660979999999</v>
       </c>
-      <c r="AA20" s="28">
+      <c r="AA20" s="21">
         <v>20.501658920000001</v>
       </c>
-      <c r="AB20" s="28">
+      <c r="AB20" s="21">
         <v>30.50087027</v>
       </c>
       <c r="AC20" s="2">
@@ -5621,7 +5661,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4775549188156642E-3</v>
       </c>
       <c r="I21" s="1"/>
@@ -5699,7 +5739,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3595679012345679E-3</v>
       </c>
       <c r="I22" s="1"/>
@@ -5708,7 +5748,7 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2">
@@ -5727,16 +5767,16 @@
       <c r="T22" s="2">
         <v>3.36</v>
       </c>
-      <c r="V22" s="28">
+      <c r="V22" s="21">
         <v>1.0224115760000001</v>
       </c>
-      <c r="W22" s="28">
+      <c r="W22" s="21">
         <v>6.7378660349999997</v>
       </c>
-      <c r="X22" s="28">
+      <c r="X22" s="21">
         <v>20.775096659999999</v>
       </c>
-      <c r="Y22" s="28">
+      <c r="Y22" s="21">
         <v>34.15463252</v>
       </c>
       <c r="Z22" s="2">
@@ -5778,7 +5818,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4225759768451523E-3</v>
       </c>
       <c r="I23" s="1"/>
@@ -5787,7 +5827,7 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2">
@@ -5806,16 +5846,16 @@
       <c r="T23" s="2">
         <v>4.32</v>
       </c>
-      <c r="V23" s="28">
+      <c r="V23" s="21">
         <v>4.9495458169999997</v>
       </c>
-      <c r="W23" s="28">
+      <c r="W23" s="21">
         <v>12.58984356</v>
       </c>
-      <c r="X23" s="28">
+      <c r="X23" s="21">
         <v>26.698219829999999</v>
       </c>
-      <c r="Y23" s="28">
+      <c r="Y23" s="21">
         <v>33.260452469999997</v>
       </c>
       <c r="Z23" s="2">
@@ -5857,7 +5897,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1442687747035579E-3</v>
       </c>
       <c r="I24" s="1"/>
@@ -5866,7 +5906,7 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
@@ -5885,16 +5925,16 @@
       <c r="T24" s="2">
         <v>4.1500000000000004</v>
       </c>
-      <c r="V24" s="28">
+      <c r="V24" s="21">
         <v>1.9534479819999999</v>
       </c>
-      <c r="W24" s="28">
+      <c r="W24" s="21">
         <v>5.2736711090000004</v>
       </c>
-      <c r="X24" s="28">
+      <c r="X24" s="21">
         <v>15.234340489999999</v>
       </c>
-      <c r="Y24" s="28">
+      <c r="Y24" s="21">
         <v>24.557380040000002</v>
       </c>
       <c r="Z24" s="2">
@@ -5936,7 +5976,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4835646457268086E-3</v>
       </c>
       <c r="I25" s="1"/>
@@ -6017,7 +6057,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7395596051632502E-3</v>
       </c>
       <c r="I26" s="1"/>
@@ -6026,7 +6066,7 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2">
@@ -6045,16 +6085,16 @@
       <c r="T26" s="2">
         <v>2.56</v>
       </c>
-      <c r="V26" s="28">
+      <c r="V26" s="21">
         <v>1.017123767</v>
       </c>
-      <c r="W26" s="28">
+      <c r="W26" s="21">
         <v>7.9343132260000004</v>
       </c>
-      <c r="X26" s="28">
+      <c r="X26" s="21">
         <v>17.925968900000001</v>
       </c>
-      <c r="Y26" s="28">
+      <c r="Y26" s="21">
         <v>26.937708430000001</v>
       </c>
       <c r="Z26" s="2">
@@ -6099,7 +6139,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6493860845839009E-3</v>
       </c>
       <c r="I27" s="1"/>
@@ -6108,7 +6148,7 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2">
@@ -6127,19 +6167,19 @@
       <c r="T27" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="V27" s="28">
+      <c r="V27" s="21">
         <v>0</v>
       </c>
-      <c r="W27" s="28">
+      <c r="W27" s="21">
         <v>3.9191568999999999</v>
       </c>
-      <c r="X27" s="28">
+      <c r="X27" s="21">
         <v>9.4617272999999997</v>
       </c>
-      <c r="Y27" s="28">
+      <c r="Y27" s="21">
         <v>16.739353999999999</v>
       </c>
-      <c r="Z27" s="28">
+      <c r="Z27" s="21">
         <v>23.943847600000002</v>
       </c>
       <c r="AA27" s="2">
@@ -6181,7 +6221,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4514338575393151E-3</v>
       </c>
       <c r="I28" s="1"/>
@@ -6190,7 +6230,7 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
@@ -6259,7 +6299,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5121056493030079E-3</v>
       </c>
       <c r="I29" s="1"/>
@@ -6268,7 +6308,7 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
@@ -6337,7 +6377,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1558796718322698E-2</v>
       </c>
       <c r="I30" s="1"/>
@@ -6415,7 +6455,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0828351836037574E-2</v>
       </c>
       <c r="I31" s="1"/>
@@ -6424,7 +6464,7 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2">
@@ -6443,19 +6483,19 @@
       <c r="T31" s="2">
         <v>1.49</v>
       </c>
-      <c r="V31" s="28">
+      <c r="V31" s="21">
         <v>2.3174662380000002</v>
       </c>
-      <c r="W31" s="28">
+      <c r="W31" s="21">
         <v>3.476199357</v>
       </c>
-      <c r="X31" s="28">
+      <c r="X31" s="21">
         <v>9.4411431690000001</v>
       </c>
-      <c r="Y31" s="28">
+      <c r="Y31" s="21">
         <v>17.321380340000001</v>
       </c>
-      <c r="Z31" s="30">
+      <c r="Z31" s="23">
         <v>26.0887873</v>
       </c>
       <c r="AA31" s="2">
@@ -6494,7 +6534,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2951991828396323E-2</v>
       </c>
       <c r="I32" s="1"/>
@@ -6503,7 +6543,7 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2">
@@ -6522,22 +6562,22 @@
       <c r="T32" s="2">
         <v>1.97</v>
       </c>
-      <c r="V32" s="28">
+      <c r="V32" s="21">
         <v>1.2116763450000001</v>
       </c>
-      <c r="W32" s="28">
+      <c r="W32" s="21">
         <v>3.4458971329999999</v>
       </c>
-      <c r="X32" s="28">
+      <c r="X32" s="21">
         <v>10.715955210000001</v>
       </c>
-      <c r="Y32" s="28">
+      <c r="Y32" s="21">
         <v>20.663515449999998</v>
       </c>
-      <c r="Z32" s="28">
+      <c r="Z32" s="21">
         <v>24.495172490000002</v>
       </c>
-      <c r="AA32" s="28">
+      <c r="AA32" s="21">
         <v>30.553554210000001</v>
       </c>
       <c r="AB32" s="2">
@@ -6573,7 +6613,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0949913644214162E-2</v>
       </c>
       <c r="I33" s="1"/>
@@ -6582,7 +6622,7 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2">
@@ -6601,22 +6641,22 @@
       <c r="T33" s="2">
         <v>1.62</v>
       </c>
-      <c r="V33" s="28">
+      <c r="V33" s="21">
         <v>0.54187813500000004</v>
       </c>
-      <c r="W33" s="28">
+      <c r="W33" s="21">
         <v>1.625634405</v>
       </c>
-      <c r="X33" s="28">
+      <c r="X33" s="21">
         <v>5.0953474249999999</v>
       </c>
-      <c r="Y33" s="28">
+      <c r="Y33" s="21">
         <v>12.222641510000001</v>
       </c>
-      <c r="Z33" s="28">
+      <c r="Z33" s="21">
         <v>16.5914027</v>
       </c>
-      <c r="AA33" s="28">
+      <c r="AA33" s="21">
         <v>22.42760883</v>
       </c>
       <c r="AB33" s="2">
@@ -6652,7 +6692,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0262589928057555E-2</v>
       </c>
       <c r="I34" s="1"/>
@@ -6730,7 +6770,7 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3271170313986679E-2</v>
       </c>
       <c r="I35" s="1"/>
@@ -6808,7 +6848,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2322643343051507E-2</v>
       </c>
       <c r="I36" s="1"/>
@@ -6817,7 +6857,7 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2">
@@ -6836,22 +6876,22 @@
       <c r="T36" s="2">
         <v>2.48</v>
       </c>
-      <c r="V36" s="28">
+      <c r="V36" s="21">
         <v>0</v>
       </c>
-      <c r="W36" s="28">
+      <c r="W36" s="21">
         <v>2.3174662380000002</v>
       </c>
-      <c r="X36" s="28">
+      <c r="X36" s="21">
         <v>8.806371704</v>
       </c>
-      <c r="Y36" s="28">
+      <c r="Y36" s="21">
         <v>14.66914907</v>
       </c>
-      <c r="Z36" s="30">
+      <c r="Z36" s="23">
         <v>22.589325160000001</v>
       </c>
-      <c r="AA36" s="30">
+      <c r="AA36" s="23">
         <v>26.78643503</v>
       </c>
       <c r="AB36" s="2">
@@ -6887,7 +6927,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0125998225377108E-2</v>
       </c>
       <c r="I37" s="1"/>
@@ -6896,7 +6936,7 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2">
@@ -6915,19 +6955,19 @@
       <c r="T37" s="2">
         <v>1.33</v>
       </c>
-      <c r="V37" s="28">
+      <c r="V37" s="21">
         <v>1.6938524150000001</v>
       </c>
-      <c r="W37" s="28">
+      <c r="W37" s="21">
         <v>4.9188513330000001</v>
       </c>
-      <c r="X37" s="28">
+      <c r="X37" s="21">
         <v>13.064326769999999</v>
       </c>
-      <c r="Y37" s="28">
+      <c r="Y37" s="21">
         <v>19.052999419999999</v>
       </c>
-      <c r="Z37" s="28">
+      <c r="Z37" s="21">
         <v>22.887620909999999</v>
       </c>
       <c r="AA37" s="2">
@@ -6966,7 +7006,7 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8218435321456229E-3</v>
       </c>
       <c r="I38" s="1"/>
@@ -7044,7 +7084,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1161971830985915E-2</v>
       </c>
       <c r="I39" s="1"/>
@@ -7053,7 +7093,7 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2">
@@ -7072,19 +7112,19 @@
       <c r="T39" s="2">
         <v>1.37</v>
       </c>
-      <c r="V39" s="28">
+      <c r="V39" s="21">
         <v>0.88053439</v>
       </c>
-      <c r="W39" s="28">
+      <c r="W39" s="21">
         <v>4.2335094550000001</v>
       </c>
-      <c r="X39" s="28">
+      <c r="X39" s="21">
         <v>10.64389658</v>
       </c>
-      <c r="Y39" s="28">
+      <c r="Y39" s="21">
         <v>16.517793600000001</v>
       </c>
-      <c r="Z39" s="28">
+      <c r="Z39" s="21">
         <v>21.83756236</v>
       </c>
       <c r="AA39" s="2">
@@ -7123,7 +7163,7 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2007575757575757E-2</v>
       </c>
       <c r="I40" s="1"/>
@@ -7201,7 +7241,7 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4655821917808219E-2</v>
       </c>
       <c r="I41" s="1"/>
@@ -7357,7 +7397,7 @@
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0324131789848619E-2</v>
       </c>
       <c r="I43" s="1"/>
@@ -7366,7 +7406,7 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2">
@@ -7385,22 +7425,22 @@
       <c r="T43" s="2">
         <v>1.76</v>
       </c>
-      <c r="V43" s="29">
+      <c r="V43" s="22">
         <v>1.2573999810000001</v>
       </c>
-      <c r="W43" s="28">
+      <c r="W43" s="21">
         <v>5.3511977230000003</v>
       </c>
-      <c r="X43" s="28">
+      <c r="X43" s="21">
         <v>10.97446139</v>
       </c>
-      <c r="Y43" s="28">
+      <c r="Y43" s="21">
         <v>17.160051419999999</v>
       </c>
-      <c r="Z43" s="28">
+      <c r="Z43" s="21">
         <v>22.783315089999999</v>
       </c>
-      <c r="AA43" s="28">
+      <c r="AA43" s="21">
         <v>26.555515029999999</v>
       </c>
       <c r="AB43" s="2">
@@ -7436,7 +7476,7 @@
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4825309491059148E-2</v>
       </c>
       <c r="I44" s="1"/>
@@ -7445,7 +7485,7 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="16">
@@ -7464,19 +7504,19 @@
       <c r="T44" s="16">
         <v>2.1800000000000002</v>
       </c>
-      <c r="V44" s="28">
+      <c r="V44" s="21">
         <v>0.58618262399999999</v>
       </c>
-      <c r="W44" s="28">
+      <c r="W44" s="21">
         <v>2.6996941730000001</v>
       </c>
-      <c r="X44" s="28">
+      <c r="X44" s="21">
         <v>11.15374037</v>
       </c>
-      <c r="Y44" s="28">
+      <c r="Y44" s="21">
         <v>17.49427502</v>
       </c>
-      <c r="Z44" s="28">
+      <c r="Z44" s="21">
         <v>24.839122400000001</v>
       </c>
       <c r="AA44" s="2">
@@ -7515,7 +7555,7 @@
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6480909829406986E-2</v>
       </c>
       <c r="I45" s="1"/>
@@ -7593,7 +7633,7 @@
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0835680751173709E-2</v>
       </c>
       <c r="I46" s="1"/>
@@ -7602,7 +7642,7 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2">
@@ -7621,19 +7661,19 @@
       <c r="T46" s="2">
         <v>1.08</v>
       </c>
-      <c r="V46" s="28">
+      <c r="V46" s="21">
         <v>0.50779774899999996</v>
       </c>
-      <c r="W46" s="28">
+      <c r="W46" s="21">
         <v>2.601501506</v>
       </c>
-      <c r="X46" s="28">
+      <c r="X46" s="21">
         <v>9.6560532939999995</v>
       </c>
-      <c r="Y46" s="28">
+      <c r="Y46" s="21">
         <v>14.73403079</v>
       </c>
-      <c r="Z46" s="28">
+      <c r="Z46" s="21">
         <v>17.606568639999999</v>
       </c>
       <c r="AA46" s="2">
@@ -7672,7 +7712,7 @@
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.13392382639504E-2</v>
       </c>
       <c r="I47" s="1"/>
@@ -7750,7 +7790,7 @@
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9001461988304096E-2</v>
       </c>
       <c r="I48" s="1"/>
@@ -7828,7 +7868,7 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0072052401746723E-2</v>
       </c>
       <c r="I49" s="1"/>
@@ -7906,7 +7946,7 @@
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5549050632911392E-2</v>
       </c>
       <c r="I50" s="1"/>
